--- a/fund/analysis/data/fund_corr.xlsx
+++ b/fund/analysis/data/fund_corr.xlsx
@@ -15,15 +15,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>中欧医疗健康混合A</t>
+  </si>
+  <si>
+    <t>兴全合润</t>
   </si>
   <si>
     <t>华夏上证50ETF</t>
   </si>
   <si>
     <t>华安创业板50ETF</t>
+  </si>
+  <si>
+    <t>华安德国30(DAX)ETF</t>
   </si>
   <si>
     <t>华泰柏瑞沪深300ETF</t>
@@ -35,16 +41,25 @@
     <t>博时标普500ETF</t>
   </si>
   <si>
+    <t>嘉实港股通新经济指数A</t>
+  </si>
+  <si>
     <t>嘉实超短债债券C</t>
   </si>
   <si>
     <t>国泰纳斯达克100ETF</t>
   </si>
   <si>
+    <t>天弘越南市场股票(QDII)A</t>
+  </si>
+  <si>
     <t>富国中证消费50ETF</t>
   </si>
   <si>
     <t>富国天惠成长混合LOF</t>
+  </si>
+  <si>
+    <t>工银印度基金人民币</t>
   </si>
   <si>
     <t>广发稳健增长混合A</t>
@@ -59,10 +74,19 @@
     <t>易方达上证50增强A</t>
   </si>
   <si>
+    <t>易方达上证科创板50成份ETF</t>
+  </si>
+  <si>
     <t>易方达中小盘混合</t>
   </si>
   <si>
     <t>易方达中概互联50ETF</t>
+  </si>
+  <si>
+    <t>易方达中证科创创业50ETF</t>
+  </si>
+  <si>
+    <t>易方达中证科技50ETF</t>
   </si>
   <si>
     <t>易方达亚洲精选</t>
@@ -77,16 +101,34 @@
     <t>易方达恒生国企ETF</t>
   </si>
   <si>
+    <t>易方达恒生科技</t>
+  </si>
+  <si>
+    <t>易方达日经225ETF</t>
+  </si>
+  <si>
     <t>易方达标普信息科技人民币</t>
   </si>
   <si>
+    <t>易方达标普消费品指数A</t>
+  </si>
+  <si>
     <t>易方达沪深300医药ETF</t>
+  </si>
+  <si>
+    <t>易方达沪深300指数增强A</t>
+  </si>
+  <si>
+    <t>易方达消费精选股票</t>
   </si>
   <si>
     <t>易方达消费行业股票</t>
   </si>
   <si>
     <t>易方达深证100ETF</t>
+  </si>
+  <si>
+    <t>易方达瑞恒灵活配置混合</t>
   </si>
   <si>
     <t>易方达稳健收益债券B</t>
@@ -101,10 +143,16 @@
     <t>易方达高等级信用债债券A</t>
   </si>
   <si>
+    <t>景顺长城绩优成长混合</t>
+  </si>
+  <si>
     <t>汇添富中证主要消费ETF</t>
   </si>
   <si>
     <t>汇添富中证新能源汽车A</t>
+  </si>
+  <si>
+    <t>汇添富全球医疗混合人民币</t>
   </si>
 </sst>
 </file>
@@ -453,7 +501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE31"/>
+  <dimension ref="A1:AU47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +509,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:47">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,8 +600,56 @@
       <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:47">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,2846 +657,6574 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5105815974320725</v>
+        <v>0.7130527349866517</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7359947657254046</v>
+        <v>0.5179606916509923</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6051929677359877</v>
+        <v>0.7314103653253273</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4958051239798288</v>
+        <v>0.1236622108401363</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1139953264243574</v>
+        <v>0.6042417562759914</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.01811288189347126</v>
+        <v>0.4799563269639051</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1017715970115726</v>
+        <v>0.111692451396616</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7047053611109753</v>
+        <v>0.5712344166639702</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7490976315933365</v>
+        <v>-0.01792046483201095</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7491704266272606</v>
+        <v>0.1019069021101692</v>
       </c>
       <c r="M2" t="n">
-        <v>0.564666707281086</v>
+        <v>0.1746160547837749</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.02105770486969284</v>
+        <v>0.7100926259052265</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6469157087004996</v>
+        <v>0.7439410708884628</v>
       </c>
       <c r="P2" t="n">
-        <v>0.7527412463688876</v>
+        <v>0.1264955102541997</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3749680693428135</v>
+        <v>0.7383946835831795</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4305285540056792</v>
+        <v>0.5705482619766975</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7447066179988331</v>
+        <v>-0.02910744094647799</v>
       </c>
       <c r="T2" t="n">
-        <v>0.5378484266466155</v>
+        <v>0.6528708836138274</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3348757632206941</v>
+        <v>0.5340803635202724</v>
       </c>
       <c r="V2" t="n">
-        <v>0.106146579810194</v>
+        <v>0.7419881979463839</v>
       </c>
       <c r="W2" t="n">
-        <v>0.9243089707439972</v>
+        <v>0.390351421206775</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6783994425803209</v>
+        <v>0.7616293445028748</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7160348191084581</v>
+        <v>0.739458050746915</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.4151087905395429</v>
+        <v>0.4342847242925439</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.7286692460452561</v>
+        <v>0.7398134752671006</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.6769497179920727</v>
+        <v>0.5119409386602085</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.03389911804019787</v>
+        <v>0.3450217450156738</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.6819948777879351</v>
+        <v>0.5252999342881176</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.5252420803987657</v>
+        <v>0.1015800311697554</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.1041704254072568</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.2389570265240855</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.9231848103241035</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.6925216404439024</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.7073347404606761</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.6850626832545015</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.7119673341481393</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.7030761922185316</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.4073643435022993</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.7215399709837345</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.6736908194739271</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.03106473827713571</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.8016683855282195</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.6813441461828639</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.4914327905887364</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.636146688246796</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:47">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5105815974320725</v>
+        <v>0.7130527349866517</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6032623435126503</v>
+        <v>0.6938183234245381</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9405961164487043</v>
+        <v>0.8078496868432999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6275882216708404</v>
+        <v>0.1604012559825769</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1702627609148616</v>
+        <v>0.81188589325973</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04446086782602141</v>
+        <v>0.7458578479519958</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1519311949418345</v>
+        <v>0.1799002629196547</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8076603533362779</v>
+        <v>0.6692177725873919</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6941999418106201</v>
+        <v>0.006195984635482537</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6141107682310017</v>
+        <v>0.1608357661453185</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6441976708029271</v>
+        <v>0.2201235800204486</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2130157458765708</v>
+        <v>0.791154044342411</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9366011900121102</v>
+        <v>0.8669003042329098</v>
       </c>
       <c r="P3" t="n">
-        <v>0.681664510766871</v>
+        <v>0.228171170632879</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4335787482498347</v>
+        <v>0.7102873354623633</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5209189927752025</v>
+        <v>0.6893987149468837</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5335650628251499</v>
+        <v>0.06894379756366842</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5765908965959075</v>
+        <v>0.7880923974020987</v>
       </c>
       <c r="U3" t="n">
-        <v>0.6675909179353035</v>
+        <v>0.5868451610919815</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1886453931878825</v>
+        <v>0.8013298310360711</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6095123069940774</v>
+        <v>0.4727935379682711</v>
       </c>
       <c r="X3" t="n">
-        <v>0.6493037843064868</v>
+        <v>0.7836203721964975</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.8002916213046934</v>
+        <v>0.8616799412205989</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.7219919035305837</v>
+        <v>0.5687214040180898</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.7104648774012899</v>
+        <v>0.7830050086356074</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.6693816613426682</v>
+        <v>0.7701688920985423</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.003202343294224045</v>
+        <v>0.5376460283885922</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.6642847167262821</v>
+        <v>0.6650068481361135</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.5170664225757344</v>
+        <v>0.2716844546034618</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.172189124330391</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.3074555041611442</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.7792554761952716</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.7368993694382436</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.7366583269538119</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.767563518857423</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.8953354952542717</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.8115768295874173</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.6770624029876661</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.7674574992329787</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.8339881368402369</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.001683930389472658</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.7791035932347656</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.7910111321693997</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.6457234167061539</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.5481925365427193</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:47">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7359947657254046</v>
+        <v>0.5179606916509923</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6032623435126503</v>
+        <v>0.6938183234245381</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7595092697202074</v>
+        <v>0.6050775823041871</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7927194693015829</v>
+        <v>0.1762257648842879</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1554153549934301</v>
+        <v>0.9408462590782597</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.02984857139252738</v>
+        <v>0.6270261304365006</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1355742252244888</v>
+        <v>0.1687840032664794</v>
       </c>
       <c r="J4" t="n">
-        <v>0.715356167866036</v>
+        <v>0.6107978642199129</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8534478717917154</v>
+        <v>0.04457395784981324</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7041069125513394</v>
+        <v>0.1530036207534176</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5154001129913711</v>
+        <v>0.2461928997206742</v>
       </c>
       <c r="N4" t="n">
-        <v>0.001238074091528987</v>
+        <v>0.8133720020855969</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6470486830356622</v>
+        <v>0.6978639593870486</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6676860492549447</v>
+        <v>0.24386689078041</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.374028177132066</v>
+        <v>0.6155511717095596</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4507014986075332</v>
+        <v>0.64863381088107</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9847062241084604</v>
+        <v>0.2109040430829275</v>
       </c>
       <c r="T4" t="n">
-        <v>0.7542539016952761</v>
+        <v>0.9351535865880873</v>
       </c>
       <c r="U4" t="n">
-        <v>0.4231737235820929</v>
+        <v>0.4197201757448202</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1447102232839535</v>
+        <v>0.6850891396981527</v>
       </c>
       <c r="W4" t="n">
-        <v>0.7401094326569598</v>
+        <v>0.4485953956711637</v>
       </c>
       <c r="X4" t="n">
-        <v>0.6282665690397209</v>
+        <v>0.6720029687166273</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.8726091551840834</v>
+        <v>0.7075435630105009</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.5990754125816741</v>
+        <v>0.5273066290142028</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.6956307479956677</v>
+        <v>0.5371972491906096</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.7448377466546758</v>
+        <v>0.573351004907852</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.01854838911037476</v>
+        <v>0.6702397474561843</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.6452042424536181</v>
+        <v>0.5682795656940242</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.8243409367610949</v>
+        <v>0.3495987266791353</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.187955774104733</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.2994841064483368</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.61009797101814</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.8627208176559751</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.6964248376393435</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.6534980699573955</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.8013432922201141</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.7651910724016526</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.7222939856925616</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.7187915241967054</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.671893323927727</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-0.001553731544311762</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.7229645432441609</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.667769707068162</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.4983229404303088</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.4230149133864406</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:47">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6051929677359877</v>
+        <v>0.7314103653253272</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9405961164487043</v>
+        <v>0.8078496868432998</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7595092697202074</v>
+        <v>0.6050775823041872</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8263765393977278</v>
+        <v>0.1434510773828058</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1735071445341366</v>
+        <v>0.7589801478037754</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03553630284431954</v>
+        <v>0.7813809742116365</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1564640979295219</v>
+        <v>0.1525381609803725</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8440935322877076</v>
+        <v>0.6420970089553265</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8576432102364226</v>
+        <v>-0.02819910850555616</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7744883778318801</v>
+        <v>0.1374844369151209</v>
       </c>
       <c r="M5" t="n">
-        <v>0.700704525500804</v>
+        <v>0.2415411921988724</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1937906235451515</v>
+        <v>0.6981989066836017</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8972662329732718</v>
+        <v>0.8499003038961064</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7420563097535311</v>
+        <v>0.1771268330232269</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.4587685288199538</v>
+        <v>0.6977426296155733</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5779111069031524</v>
+        <v>0.5073779650347767</v>
       </c>
       <c r="S5" t="n">
-        <v>0.7341735196852802</v>
+        <v>-0.0003288788046672967</v>
       </c>
       <c r="T5" t="n">
-        <v>0.6413129188740823</v>
+        <v>0.6477773952303414</v>
       </c>
       <c r="U5" t="n">
-        <v>0.6538690121440685</v>
+        <v>0.7394245347571093</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1939842959158733</v>
+        <v>0.6583200094489244</v>
       </c>
       <c r="W5" t="n">
-        <v>0.7122826070428047</v>
+        <v>0.4003658055665211</v>
       </c>
       <c r="X5" t="n">
-        <v>0.7100970559947051</v>
+        <v>0.9667104431220571</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.937221811074926</v>
+        <v>0.9355891964581661</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.7828466800642309</v>
+        <v>0.4597233455500433</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.7451104229134015</v>
+        <v>0.9852425741794997</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.7842533374600967</v>
+        <v>0.7428880777219934</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.001668614753378236</v>
+        <v>0.4379002583607352</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.7385748259220337</v>
+        <v>0.6079605624743736</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.6429856602348749</v>
+        <v>0.1834979969433841</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.1468201449492947</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.2738953116224512</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.7335706333906156</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.6897072788541332</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.6887931270314255</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.6236817417915358</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.8737628560041729</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.7035753753484053</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.5925472071586187</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.6873945760015612</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.7531685301793526</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.01699201506224753</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.7522676920692926</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.6336193144567748</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.8198151961293284</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.5949006900836082</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:47">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4958051239798288</v>
+        <v>0.1236622108401363</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6275882216708404</v>
+        <v>0.1604012559825769</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7927194693015829</v>
+        <v>0.1762257648842879</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8263765393977278</v>
+        <v>0.1434510773828057</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1389101861229682</v>
+        <v>0.1770325688944884</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0173436716456782</v>
+        <v>0.1432957596171803</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1188432432343626</v>
+        <v>0.5323174820552519</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5992353061053373</v>
+        <v>0.3131853349144485</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8976406026691308</v>
+        <v>-0.03123829724903346</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8443668765890626</v>
+        <v>0.4201139342975277</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5384386072382945</v>
+        <v>0.2120648184963817</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1246352187983554</v>
+        <v>0.164649630850644</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5759917942088477</v>
+        <v>0.1619119322227582</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5448996187777685</v>
+        <v>0.5733878786938894</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3723109169237481</v>
+        <v>0.1072620374656938</v>
       </c>
       <c r="R6" t="n">
-        <v>0.5139513198653232</v>
+        <v>0.1523263817877024</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8811152450107511</v>
+        <v>-0.02002326068226737</v>
       </c>
       <c r="T6" t="n">
-        <v>0.5012504799159364</v>
+        <v>0.1836177116846543</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4926437126661536</v>
+        <v>-0.08905594239415156</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1583803751253919</v>
+        <v>0.1673075664107332</v>
       </c>
       <c r="W6" t="n">
-        <v>0.6106418156845929</v>
+        <v>0.3616890235862866</v>
       </c>
       <c r="X6" t="n">
-        <v>0.5075388877253093</v>
+        <v>0.2354899670149102</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.8458231696974483</v>
+        <v>0.02741881383436207</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.682494346807478</v>
+        <v>0.338209359288649</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.5533998436800724</v>
+        <v>0.1342641759510329</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.7167703906833741</v>
+        <v>0.1789350708379623</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.007854883887866052</v>
+        <v>0.3588093782568585</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.5718544786359983</v>
+        <v>0.2004123210140014</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.6388789034652838</v>
+        <v>0.4140376244504138</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.4842343346651335</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.7797132884146293</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.1388187837475638</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.03815850458327914</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.1274977057096405</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.1428840759964365</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.1672618749641918</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.1790873901190393</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.144890997050244</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.2146399192923406</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.1522504869056055</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>-0.03069129125360574</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.1720521608374014</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.1566708426072723</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.1322200107431965</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.259377378574214</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:47">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1139953264243574</v>
+        <v>0.6042417562759913</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1702627609148616</v>
+        <v>0.81188589325973</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1554153549934301</v>
+        <v>0.9408462590782596</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1735071445341366</v>
+        <v>0.7589801478037754</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1389101861229682</v>
+        <v>0.1770325688944885</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.004475203935956004</v>
+        <v>0.8251110898584363</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9010899624796874</v>
+        <v>0.1715545800500766</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1709917953485374</v>
+        <v>0.6572322800923318</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1694456066973823</v>
+        <v>0.03581532332299187</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1168784821147649</v>
+        <v>0.1570966103826511</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1467694904143695</v>
+        <v>0.2622311887400871</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.005308799572821959</v>
+        <v>0.8425284927159141</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1843767513022418</v>
+        <v>0.8594784989056178</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1670103354651489</v>
+        <v>0.2463686786539518</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.4630717731423931</v>
+        <v>0.7743351031165489</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3667788742606082</v>
+        <v>0.7006406314750042</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1343122910341356</v>
+        <v>0.1921413362705678</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1924561716534136</v>
+        <v>0.8958897967020583</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2563041315229992</v>
+        <v>0.572794796210544</v>
       </c>
       <c r="V7" t="n">
-        <v>0.9234450022002699</v>
+        <v>0.7441143034028392</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1398537114034629</v>
+        <v>0.4739423461856629</v>
       </c>
       <c r="X7" t="n">
-        <v>0.1501297505859588</v>
+        <v>0.7848154895464885</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.1728239948102093</v>
+        <v>0.8323755454146593</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.1317310267725612</v>
+        <v>0.5832375223941896</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.1938182475154655</v>
+        <v>0.7360399243657968</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.1647228192099138</v>
+        <v>0.6412278644299702</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.01943603099189666</v>
+        <v>0.6572314821132115</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.1741052205876752</v>
+        <v>0.6686946680791546</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.1434076675167212</v>
+        <v>0.3383673438812733</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.1932339771111495</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.303386839281276</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.7084330415467593</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.8187150349846176</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.746891878968882</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.7105711621723603</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.9369581148363311</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.8092097381689859</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.7830412195437917</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.7496547387467162</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.7861354016231402</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0.0002443826269016061</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.76883092745357</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.7380001926506126</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.6236373293436378</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.5038505275665702</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:47">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.01811288189347127</v>
+        <v>0.479956326963905</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04446086782602141</v>
+        <v>0.7458578479519958</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.02984857139252738</v>
+        <v>0.6270261304365006</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03553630284431954</v>
+        <v>0.7813809742116364</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0173436716456782</v>
+        <v>0.1432957596171803</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.004475203935956005</v>
+        <v>0.8251110898584363</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.007633876867588419</v>
+        <v>0.1381009108533722</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.02393660312683984</v>
+        <v>0.5708699046915049</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01912005406704194</v>
+        <v>0.01765496623687066</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04987029546277102</v>
+        <v>0.1191063516910182</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.03650423826338774</v>
+        <v>0.2345336785767847</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3506855628321098</v>
+        <v>0.5873353303225933</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02410863821340356</v>
+        <v>0.8949749764913578</v>
       </c>
       <c r="P8" t="n">
-        <v>0.002257278729441406</v>
+        <v>0.224783675528911</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.02392415442615315</v>
+        <v>0.8434223978179559</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01128332356749093</v>
+        <v>0.5324701620296594</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01587008444352719</v>
+        <v>0.1245673464684844</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0005399961919617146</v>
+        <v>0.571474972391304</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03977817256976715</v>
+        <v>0.6602595622256537</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.009095289589638312</v>
+        <v>0.5440011656574636</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.006646397999886307</v>
+        <v>0.377096443711339</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.006855939124834591</v>
+        <v>0.6405892556513563</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.02250762396033229</v>
+        <v>0.7744851652601098</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.1747858358726509</v>
+        <v>0.5137514025732999</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.02309238251748845</v>
+        <v>0.8764486661391735</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.09115033391696339</v>
+        <v>0.5043852660831878</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.3871582208211019</v>
+        <v>0.4931125900643329</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.00733168099983504</v>
+        <v>0.5942085965674579</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0.01593536253595425</v>
+        <v>0.2922007181956948</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.1594489691401996</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.2306408206466297</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.5983007847945919</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.581992706059365</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.547926234624483</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.5011768917480655</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.8411115825551174</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.5766428307820011</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.6832725530487165</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.5484391112470169</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.7144768129871181</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.008338815087642228</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.5584723297431596</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.5644273065122847</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.618088112350991</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.4439827305090821</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:47">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1017715970115726</v>
+        <v>0.111692451396616</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1519311949418345</v>
+        <v>0.1799002629196547</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1355742252244888</v>
+        <v>0.1687840032664794</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1564640979295219</v>
+        <v>0.1525381609803725</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1188432432343626</v>
+        <v>0.5323174820552519</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9010899624796875</v>
+        <v>0.1715545800500767</v>
       </c>
       <c r="H9" t="n">
-        <v>0.007633876867588418</v>
+        <v>0.1381009108533722</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1689928958507427</v>
+        <v>0.2482286645860753</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1484607848621899</v>
+        <v>-0.003749607805230843</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1057128040041063</v>
+        <v>0.9010875226799808</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1456141002265618</v>
+        <v>0.2304330563461044</v>
       </c>
       <c r="N9" t="n">
-        <v>0.003526111964743098</v>
+        <v>0.1657891068446502</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1754203487429313</v>
+        <v>0.1683518522497184</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1598580379486678</v>
+        <v>0.6485183944228056</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.5329748310968765</v>
+        <v>0.1157365156698904</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3938409939748779</v>
+        <v>0.1442584879119001</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1173358467413781</v>
+        <v>-0.005702080069604253</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1630009242596237</v>
+        <v>0.1817081238771506</v>
       </c>
       <c r="U9" t="n">
-        <v>0.2136348615619652</v>
+        <v>0.06630862246930999</v>
       </c>
       <c r="V9" t="n">
-        <v>0.9776568068346874</v>
+        <v>0.1661868284719892</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1339858731439806</v>
+        <v>0.4472274775850861</v>
       </c>
       <c r="X9" t="n">
-        <v>0.1565682938042335</v>
+        <v>0.03349521948993303</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1619254303175267</v>
+        <v>0.08410707323851095</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.1166872972589501</v>
+        <v>0.3626151471451466</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.1854563386796689</v>
+        <v>0.1341391588852711</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.1522495039898094</v>
+        <v>0.1862840375900234</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.01974984974707968</v>
+        <v>0.2540630271706374</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.1769334381473934</v>
+        <v>0.03677793913280165</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.1389736205738329</v>
+        <v>0.3074283952136986</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.9234184656172637</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.7308266218576952</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.1363245481469274</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.07217854866821638</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.1561169599005272</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.1476316649617235</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.1705017055800071</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.1448037043456026</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.1314487801514963</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.1857789294923511</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.1650612667900185</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>-0.01920190127221979</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.1749195239952371</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.1712519907958373</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.1388091812382463</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.3260708342293528</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:47">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7047053611109751</v>
+        <v>0.5712344166639702</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8076603533362779</v>
+        <v>0.6692177725873919</v>
       </c>
       <c r="D10" t="n">
-        <v>0.715356167866036</v>
+        <v>0.6107978642199129</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8440935322877077</v>
+        <v>0.6420970089553265</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5992353061053372</v>
+        <v>0.3131853349144484</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1709917953485374</v>
+        <v>0.6572322800923318</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.02393660312683984</v>
+        <v>0.5708699046915049</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1689928958507427</v>
+        <v>0.2482286645860753</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8318014112435426</v>
+        <v>-0.04858259622822283</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7941934003880982</v>
+        <v>0.2380799109615276</v>
       </c>
       <c r="M10" t="n">
-        <v>0.876670912143792</v>
+        <v>0.2981979226518116</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.08018342949205814</v>
+        <v>0.600735465130513</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9017124594350679</v>
+        <v>0.6820513021765797</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9030078123293471</v>
+        <v>0.325139051953467</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.4523284418693593</v>
+        <v>0.6257198402574469</v>
       </c>
       <c r="R10" t="n">
-        <v>0.5176348911388715</v>
+        <v>0.4715651296247608</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7277134886103366</v>
+        <v>-0.06078370163230803</v>
       </c>
       <c r="T10" t="n">
-        <v>0.6311350072326225</v>
+        <v>0.6309224213230288</v>
       </c>
       <c r="U10" t="n">
-        <v>0.5122207119305459</v>
+        <v>0.543762875953961</v>
       </c>
       <c r="V10" t="n">
-        <v>0.1626574504921275</v>
+        <v>0.5881029229841246</v>
       </c>
       <c r="W10" t="n">
-        <v>0.7495649726603119</v>
+        <v>0.7812536299744158</v>
       </c>
       <c r="X10" t="n">
-        <v>0.9526685967973555</v>
+        <v>0.6532129245938048</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.8711552271560843</v>
+        <v>0.6215360376547162</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.603027549273863</v>
+        <v>0.8057035140600616</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.8671888967040369</v>
+        <v>0.6476086890945419</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.7558404611932927</v>
+        <v>0.6059035109263169</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.09676268930430879</v>
+        <v>0.817932643845103</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.9444385322644421</v>
+        <v>0.95453945540372</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.5290136136937212</v>
+        <v>0.3647864685839405</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.2379341663124656</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.4902928159249296</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.5844307213949027</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.769620616914786</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.7799897809747918</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.5723263288988316</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.6786882725069509</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.6038170009573307</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.4693166845748589</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.786615898831851</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.6206608920008406</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>-0.06313662047617127</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.776267748111883</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.5605465068439041</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.5455039288129331</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.5919725832681459</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:47">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7490976315933364</v>
+        <v>-0.01792046483201095</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6941999418106201</v>
+        <v>0.006195984635482537</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8534478717917154</v>
+        <v>0.04457395784981324</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8576432102364225</v>
+        <v>-0.02819910850555616</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8976406026691309</v>
+        <v>-0.03123829724903346</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1694456066973823</v>
+        <v>0.03581532332299187</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01912005406704194</v>
+        <v>0.01765496623687066</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1484607848621899</v>
+        <v>-0.003749607805230842</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8318014112435426</v>
+        <v>-0.04858259622822284</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8461066358297078</v>
+        <v>0.008290588137027028</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6755818992291245</v>
+        <v>0.06345249699366907</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1052583344570472</v>
+        <v>-0.02048628817608542</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7277937210214896</v>
+        <v>0.01966330521098069</v>
       </c>
       <c r="P11" t="n">
-        <v>0.7264787137252837</v>
+        <v>-0.07296079350346035</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.4555130453577975</v>
+        <v>0.05008980322685481</v>
       </c>
       <c r="R11" t="n">
-        <v>0.5767681381785266</v>
+        <v>-0.0344455832554269</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8935038467586451</v>
+        <v>0.3506826509968387</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6211650254366872</v>
+        <v>0.02461640119991559</v>
       </c>
       <c r="U11" t="n">
-        <v>0.5289809212491092</v>
+        <v>0.08790479215720845</v>
       </c>
       <c r="V11" t="n">
-        <v>0.181793540322003</v>
+        <v>0.00298324776012932</v>
       </c>
       <c r="W11" t="n">
-        <v>0.7723342645977455</v>
+        <v>-0.02534228367322925</v>
       </c>
       <c r="X11" t="n">
-        <v>0.7003797401982369</v>
+        <v>0.07635189102291702</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.9171188017343214</v>
+        <v>0.1023291348811651</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.6727250417339431</v>
+        <v>0.01096454334716185</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.7864077703374638</v>
+        <v>0.01585661972761618</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.8105462260992804</v>
+        <v>0.0009847869527942821</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.001373630588937854</v>
+        <v>0.03897498281777429</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.7353717401794631</v>
+        <v>-0.08749831759475644</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.6855665083375638</v>
+        <v>0.03159497555867025</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>-0.008035617310293969</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.004990285459758324</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-0.006509708479369886</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.1205337558817272</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.0229580873713991</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>-0.005289424103619619</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.02285805783494845</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-0.07209477017011454</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.1747418890105959</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>-0.02081003746172119</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.0908727533419726</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.3871547705436934</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>-0.02663511448701851</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>-0.005413698018028736</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>-0.007536977940519082</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>-0.03540190240975433</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:47">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7491704266272605</v>
+        <v>0.1019069021101692</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6141107682310016</v>
+        <v>0.1608357661453185</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7041069125513394</v>
+        <v>0.1530036207534176</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7744883778318801</v>
+        <v>0.1374844369151209</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8443668765890625</v>
+        <v>0.4201139342975277</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1168784821147649</v>
+        <v>0.1570966103826512</v>
       </c>
       <c r="H12" t="n">
-        <v>0.04987029546277102</v>
+        <v>0.1191063516910182</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1057128040041063</v>
+        <v>0.9010875226799809</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7941934003880982</v>
+        <v>0.2380799109615277</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8461066358297078</v>
+        <v>0.008290588137027028</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5895583168378254</v>
+        <v>0.1517197269506126</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1764122733247827</v>
+        <v>0.1679227497631655</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6047862512917438</v>
+        <v>0.149887691507036</v>
       </c>
       <c r="P12" t="n">
-        <v>0.6045215771113597</v>
+        <v>0.5453530703533415</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.4312623061508507</v>
+        <v>0.1057598975594575</v>
       </c>
       <c r="R12" t="n">
-        <v>0.4904056748566787</v>
+        <v>0.1448364734477763</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8120846535459578</v>
+        <v>0.003746968863939788</v>
       </c>
       <c r="T12" t="n">
-        <v>0.4569769594829304</v>
+        <v>0.1763596584323462</v>
       </c>
       <c r="U12" t="n">
-        <v>0.4428429676898274</v>
+        <v>0.1307585261639594</v>
       </c>
       <c r="V12" t="n">
-        <v>0.165903956162638</v>
+        <v>0.1603951460912884</v>
       </c>
       <c r="W12" t="n">
-        <v>0.6844549024703528</v>
+        <v>0.5183682427112274</v>
       </c>
       <c r="X12" t="n">
-        <v>0.5703323056247072</v>
+        <v>0.008629590433837727</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.7989774897708976</v>
+        <v>0.1079577138055019</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.6226090796881217</v>
+        <v>0.3916112526134983</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.7451822840361079</v>
+        <v>0.1196114861096779</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.7201465702683135</v>
+        <v>0.1594118859183767</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.02773377539290177</v>
+        <v>0.2144185998702981</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.6237656978038563</v>
+        <v>0.0886732752235475</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.5869428541092714</v>
+        <v>0.2087733243031991</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.9773541548756089</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.6387548862832357</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.1321673256391073</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.1192435996879278</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.1683618392023194</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.1560775576441361</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.1630617154221255</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.1463373294186011</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.1182153119355639</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.1827123918835105</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.1552392600251937</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>-0.01894309424195297</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.1784633665045447</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0.1756488036598083</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0.1422406094099735</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0.3815026173451089</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:47">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.564666707281086</v>
+        <v>0.1746160547837749</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6441976708029271</v>
+        <v>0.2201235800204486</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5154001129913711</v>
+        <v>0.2461928997206742</v>
       </c>
       <c r="E13" t="n">
-        <v>0.700704525500804</v>
+        <v>0.2415411921988724</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5384386072382945</v>
+        <v>0.2120648184963817</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1467694904143695</v>
+        <v>0.2622311887400871</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.03650423826338774</v>
+        <v>0.2345336785767848</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1456141002265618</v>
+        <v>0.2304330563461044</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8766709121437921</v>
+        <v>0.2981979226518116</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6755818992291245</v>
+        <v>0.06345249699366907</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5895583168378254</v>
+        <v>0.1517197269506126</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.01029798796355212</v>
+        <v>0.2135641033739246</v>
       </c>
       <c r="O13" t="n">
-        <v>0.7479632219019142</v>
+        <v>0.2603115793944847</v>
       </c>
       <c r="P13" t="n">
-        <v>0.8571910865879447</v>
+        <v>0.2157230391510223</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.3682812540318868</v>
+        <v>0.207438259535848</v>
       </c>
       <c r="R13" t="n">
-        <v>0.4783755064463027</v>
+        <v>0.2084577600164762</v>
       </c>
       <c r="S13" t="n">
-        <v>0.5272955494268827</v>
+        <v>-0.002293983640075483</v>
       </c>
       <c r="T13" t="n">
-        <v>0.5123662564342378</v>
+        <v>0.2361310811192206</v>
       </c>
       <c r="U13" t="n">
-        <v>0.4642116394254294</v>
+        <v>0.1949356909616562</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1348149062622216</v>
+        <v>0.1991761201198329</v>
       </c>
       <c r="W13" t="n">
-        <v>0.6677522669379695</v>
+        <v>0.2279857227301836</v>
       </c>
       <c r="X13" t="n">
-        <v>0.8866356800179821</v>
+        <v>0.2077962767030849</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.7315916931460219</v>
+        <v>0.1963953135625982</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.5715661917027376</v>
+        <v>0.2543127838473178</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.7892940430596739</v>
+        <v>0.2485683775045686</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.6654601087868308</v>
+        <v>0.2639750290596518</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.06070597011642272</v>
+        <v>0.3085950858146803</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.8754559510903152</v>
+        <v>0.1534185220423274</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.4226148881022257</v>
+        <v>0.2040548935473929</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.1629242320462017</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.2814256236892633</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.1727001290558212</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.1793709724215896</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.1969814696606496</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.220714134108096</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.2569494741637096</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.2066361228260118</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.2088237080945133</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.2195277159495016</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.2544544984356069</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0.01492379460353477</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0.2271574518468874</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0.1989445239030578</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0.2701256944351814</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0.180477933271711</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:47">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.02105770486969284</v>
+        <v>0.7100926259052265</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2130157458765708</v>
+        <v>0.7911540443424111</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001238074091528987</v>
+        <v>0.8133720020855969</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1937906235451515</v>
+        <v>0.6981989066836017</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1246352187983554</v>
+        <v>0.164649630850644</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.005308799572821958</v>
+        <v>0.8425284927159141</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3506855628321099</v>
+        <v>0.5873353303225933</v>
       </c>
       <c r="I14" t="n">
-        <v>0.003526111964743099</v>
+        <v>0.1657891068446502</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.08018342949205814</v>
+        <v>0.600735465130513</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1052583344570472</v>
+        <v>-0.02048628817608543</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1764122733247827</v>
+        <v>0.1679227497631655</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.01029798796355212</v>
+        <v>0.2135641033739246</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1428208250665706</v>
+        <v>0.8315092424355953</v>
       </c>
       <c r="P14" t="n">
-        <v>0.05351393589142142</v>
+        <v>0.1877250329502625</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.04314633810109185</v>
+        <v>0.7950252530260147</v>
       </c>
       <c r="R14" t="n">
-        <v>0.05382315014602966</v>
+        <v>0.878403306016485</v>
       </c>
       <c r="S14" t="n">
-        <v>0.06801296759877667</v>
+        <v>-0.08255657037806134</v>
       </c>
       <c r="T14" t="n">
-        <v>0.04865377411850311</v>
+        <v>0.9059506259239446</v>
       </c>
       <c r="U14" t="n">
-        <v>0.161581481994374</v>
+        <v>0.4123119494817252</v>
       </c>
       <c r="V14" t="n">
-        <v>0.0009287354574826405</v>
+        <v>0.9000536891514604</v>
       </c>
       <c r="W14" t="n">
-        <v>0.04183430282435191</v>
+        <v>0.4696510491361284</v>
       </c>
       <c r="X14" t="n">
-        <v>0.0345745934706423</v>
+        <v>0.5261037294724715</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.1325345614766203</v>
+        <v>0.7081544102763337</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.4190398237404721</v>
+        <v>0.5330005385620133</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0.07116028674121108</v>
+        <v>0.714059103909457</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.2239410570199311</v>
+        <v>0.6064589864569505</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.5584243621269004</v>
+        <v>0.5240868109649014</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.04390445444985294</v>
+        <v>0.5170320562632621</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.04726649916297748</v>
+        <v>0.215408915263286</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.1589616972312994</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.3165979966218619</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.7544837233894287</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.745331556591044</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.8526787641461148</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.9541078476603315</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.8630923961595697</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.9136557647253852</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.6022174454383926</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.8678227127857032</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.748490354653074</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>-0.08599671725866199</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.88902581609371</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.9460803540846616</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.4838033209069411</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.5076814639669288</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:47">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6469157087004996</v>
+        <v>0.7439410708884627</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9366011900121102</v>
+        <v>0.8669003042329099</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6470486830356622</v>
+        <v>0.6978639593870485</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8972662329732719</v>
+        <v>0.8499003038961064</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5759917942088477</v>
+        <v>0.1619119322227583</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1843767513022418</v>
+        <v>0.8594784989056178</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02410863821340356</v>
+        <v>0.8949749764913578</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1754203487429313</v>
+        <v>0.1683518522497184</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9017124594350679</v>
+        <v>0.6820513021765797</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7277937210214896</v>
+        <v>0.01966330521098069</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6047862512917438</v>
+        <v>0.149887691507036</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7479632219019142</v>
+        <v>0.2603115793944847</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1428208250665706</v>
+        <v>0.8315092424355953</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0.8330802436372663</v>
+        <v>0.2287682462790187</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.4591192336851951</v>
+        <v>0.845091432821383</v>
       </c>
       <c r="R15" t="n">
-        <v>0.5505767647262456</v>
+        <v>0.6756598413777979</v>
       </c>
       <c r="S15" t="n">
-        <v>0.551626357181897</v>
+        <v>0.1039976137741339</v>
       </c>
       <c r="T15" t="n">
-        <v>0.6482457388765507</v>
+        <v>0.7310731980197765</v>
       </c>
       <c r="U15" t="n">
-        <v>0.6346558505025487</v>
+        <v>0.6447196137061998</v>
       </c>
       <c r="V15" t="n">
-        <v>0.1878684616054741</v>
+        <v>0.728472761258541</v>
       </c>
       <c r="W15" t="n">
-        <v>0.732456280857401</v>
+        <v>0.4697592179548841</v>
       </c>
       <c r="X15" t="n">
-        <v>0.8103394734004029</v>
+        <v>0.854510818477879</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.8365407126115937</v>
+        <v>0.8789319904122089</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.6871864297430842</v>
+        <v>0.5816935035010431</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.8170510611329463</v>
+        <v>0.8927611234562969</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.7360296545592701</v>
+        <v>0.6195295044798921</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0.02060707929915238</v>
+        <v>0.5345423969362566</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.8193017843423724</v>
+        <v>0.6541927356309423</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.5374101100274765</v>
+        <v>0.2810560506929842</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.182047759085859</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.2918332161367154</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.7683992245812259</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.7870527922611837</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0.7779595529775307</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0.7014017498374281</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0.9173358490427147</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.8312606007876607</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0.6737110760581493</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.7880930202404287</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0.8125462966110226</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>-0.0003979672068366645</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0.8155550110681965</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0.7344515583496529</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0.6603928306673396</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0.5874567450872468</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:47">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7527412463688876</v>
+        <v>0.1264955102541997</v>
       </c>
       <c r="C16" t="n">
-        <v>0.681664510766871</v>
+        <v>0.228171170632879</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6676860492549447</v>
+        <v>0.24386689078041</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7420563097535311</v>
+        <v>0.1771268330232269</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5448996187777685</v>
+        <v>0.5733878786938895</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1670103354651489</v>
+        <v>0.2463686786539518</v>
       </c>
       <c r="H16" t="n">
-        <v>0.002257278729441406</v>
+        <v>0.224783675528911</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1598580379486678</v>
+        <v>0.6485183944228056</v>
       </c>
       <c r="J16" t="n">
-        <v>0.903007812329347</v>
+        <v>0.325139051953467</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7264787137252838</v>
+        <v>-0.07296079350346037</v>
       </c>
       <c r="L16" t="n">
-        <v>0.6045215771113597</v>
+        <v>0.5453530703533414</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8571910865879446</v>
+        <v>0.2157230391510223</v>
       </c>
       <c r="N16" t="n">
-        <v>0.05351393589142142</v>
+        <v>0.1877250329502625</v>
       </c>
       <c r="O16" t="n">
-        <v>0.8330802436372663</v>
+        <v>0.2287682462790187</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.4447714789055942</v>
+        <v>0.2132886281178394</v>
       </c>
       <c r="R16" t="n">
-        <v>0.5310634319203358</v>
+        <v>0.1479190768240132</v>
       </c>
       <c r="S16" t="n">
-        <v>0.5822359512157803</v>
+        <v>-0.07484188750033556</v>
       </c>
       <c r="T16" t="n">
-        <v>0.6361495447500319</v>
+        <v>0.2205477150864464</v>
       </c>
       <c r="U16" t="n">
-        <v>0.4912796710067694</v>
+        <v>0.08597377548740109</v>
       </c>
       <c r="V16" t="n">
-        <v>0.1579727068814249</v>
+        <v>0.1918443303178066</v>
       </c>
       <c r="W16" t="n">
-        <v>0.8178774906814736</v>
+        <v>0.3953668108105718</v>
       </c>
       <c r="X16" t="n">
-        <v>0.9215056400169567</v>
+        <v>0.2110303470313334</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.8068420918427354</v>
+        <v>0.08277785364899927</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.5722459908184687</v>
+        <v>0.413775562164804</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.8798441957086061</v>
+        <v>0.1891535557094218</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.7434206019756218</v>
+        <v>0.243833214747589</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.03321975187914415</v>
+        <v>0.387859508349981</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.9160347974342762</v>
+        <v>0.1360845534323873</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.5217335365324768</v>
+        <v>0.3031152796883776</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.5655477893080307</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.6123833457888579</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.1559793565256656</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.1333697508772396</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.2095724055482065</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.1607592420919915</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.2188050838531828</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.167926132906775</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.2077690277430228</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.2217276286608182</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.2027987821739953</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>-0.0780643252172372</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.2022700446627745</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.1699221782843949</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.1526457108992797</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.2686946894992258</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:47">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3749680693428135</v>
+        <v>0.7383946835831795</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4335787482498347</v>
+        <v>0.7102873354623633</v>
       </c>
       <c r="D17" t="n">
-        <v>0.374028177132066</v>
+        <v>0.6155511717095596</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4587685288199538</v>
+        <v>0.6977426296155733</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3723109169237481</v>
+        <v>0.1072620374656938</v>
       </c>
       <c r="G17" t="n">
-        <v>0.463071773142393</v>
+        <v>0.7743351031165487</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.02392415442615315</v>
+        <v>0.8434223978179559</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5329748310968765</v>
+        <v>0.1157365156698904</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4523284418693594</v>
+        <v>0.6257198402574469</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4555130453577975</v>
+        <v>0.0500898032268548</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4312623061508508</v>
+        <v>0.1057598975594575</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3682812540318868</v>
+        <v>0.207438259535848</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.04314633810109185</v>
+        <v>0.7950252530260147</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4591192336851952</v>
+        <v>0.845091432821383</v>
       </c>
       <c r="P17" t="n">
-        <v>0.4447714789055942</v>
+        <v>0.2132886281178394</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.8936918338289467</v>
+        <v>0.5884941972299077</v>
       </c>
       <c r="S17" t="n">
-        <v>0.389597507688538</v>
+        <v>0.1756811644601655</v>
       </c>
       <c r="T17" t="n">
-        <v>0.40816030482897</v>
+        <v>0.6038593185278408</v>
       </c>
       <c r="U17" t="n">
-        <v>0.6150325548487674</v>
+        <v>0.5704532044808686</v>
       </c>
       <c r="V17" t="n">
-        <v>0.5052518446491625</v>
+        <v>0.6057443496707342</v>
       </c>
       <c r="W17" t="n">
-        <v>0.397989718973505</v>
+        <v>0.4403113313251045</v>
       </c>
       <c r="X17" t="n">
-        <v>0.421450536288394</v>
+        <v>0.7442793516916837</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.457711955577461</v>
+        <v>0.797541797062738</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.336929087597084</v>
+        <v>0.4917446326204032</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.6477569340038793</v>
+        <v>0.8082244987380609</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.4001921782206943</v>
+        <v>0.4551975093051682</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.07024881373489425</v>
+        <v>0.4446511809659937</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.4197473135324869</v>
+        <v>0.646990754603222</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.3259865173997938</v>
+        <v>0.2844778165698245</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.1648096301951139</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.2088558277553094</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.6756714539324368</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.7116627113706889</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.7407164220053295</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.5679831804310084</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.7955541326701812</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.7633837514972922</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.6234086891232671</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.7416422754480579</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.7171215925199458</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.02830786136889436</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0.7852983908678997</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0.620641330816449</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0.554509527350201</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0.5597578172838487</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:47">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4305285540056792</v>
+        <v>0.5705482619766975</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5209189927752025</v>
+        <v>0.6893987149468838</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4507014986075332</v>
+        <v>0.64863381088107</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5779111069031524</v>
+        <v>0.5073779650347767</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5139513198653232</v>
+        <v>0.1523263817877023</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3667788742606082</v>
+        <v>0.7006406314750042</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01128332356749093</v>
+        <v>0.5324701620296594</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3938409939748779</v>
+        <v>0.1442584879119001</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5176348911388716</v>
+        <v>0.4715651296247608</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5767681381785267</v>
+        <v>-0.0344455832554269</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4904056748566786</v>
+        <v>0.1448364734477763</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4783755064463027</v>
+        <v>0.2084577600164763</v>
       </c>
       <c r="N18" t="n">
-        <v>0.05382315014602965</v>
+        <v>0.878403306016485</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5505767647262456</v>
+        <v>0.6756598413777979</v>
       </c>
       <c r="P18" t="n">
-        <v>0.5310634319203358</v>
+        <v>0.1479190768240132</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.8936918338289466</v>
+        <v>0.5884941972299077</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>0.4724697267390422</v>
+        <v>-0.01347420974423283</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4309586608189393</v>
+        <v>0.7526132479476071</v>
       </c>
       <c r="U18" t="n">
-        <v>0.7083948075356707</v>
+        <v>0.3514519595769037</v>
       </c>
       <c r="V18" t="n">
-        <v>0.4508686433510783</v>
+        <v>0.8560150174850814</v>
       </c>
       <c r="W18" t="n">
-        <v>0.509964321105233</v>
+        <v>0.3822713722516778</v>
       </c>
       <c r="X18" t="n">
-        <v>0.4990217777057966</v>
+        <v>0.4484068366492929</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.584004991169763</v>
+        <v>0.5682966346402848</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.4358760770201438</v>
+        <v>0.4850899121820934</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.7202004595687602</v>
+        <v>0.5238365477869539</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.5113842379403084</v>
+        <v>0.5008161866799198</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.0353119880523194</v>
+        <v>0.468522633067442</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.5122763164222295</v>
+        <v>0.3266798819946473</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.372610584641643</v>
+        <v>0.1915033361028311</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.1317824290325725</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.2849234717232491</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0.6686739007037843</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0.6667357754638055</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0.8022819925168966</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0.8889902659021335</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0.7285361009622435</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0.8631334656764479</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0.5687272220937086</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0.7942030383124524</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0.6624529765224459</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>-0.05691017429971665</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0.7800928245613462</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0.8779675756381496</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0.3877650299232153</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0.4413128408918808</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:47">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7447066179988331</v>
+        <v>-0.02910744094647799</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5335650628251499</v>
+        <v>0.06894379756366842</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9847062241084605</v>
+        <v>0.2109040430829275</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7341735196852801</v>
+        <v>-0.0003288788046672967</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8811152450107511</v>
+        <v>-0.02002326068226738</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1343122910341356</v>
+        <v>0.1921413362705678</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01587008444352719</v>
+        <v>0.1245673464684845</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1173358467413781</v>
+        <v>-0.005702080069604254</v>
       </c>
       <c r="J19" t="n">
-        <v>0.7277134886103365</v>
+        <v>-0.06078370163230803</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8935038467586451</v>
+        <v>0.3506826509968387</v>
       </c>
       <c r="L19" t="n">
-        <v>0.8120846535459579</v>
+        <v>0.003746968863939788</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5272955494268827</v>
+        <v>-0.002293983640075483</v>
       </c>
       <c r="N19" t="n">
-        <v>0.06801296759877667</v>
+        <v>-0.08255657037806133</v>
       </c>
       <c r="O19" t="n">
-        <v>0.551626357181897</v>
+        <v>0.1039976137741339</v>
       </c>
       <c r="P19" t="n">
-        <v>0.5822359512157803</v>
+        <v>-0.07484188750033556</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.389597507688538</v>
+        <v>0.1756811644601655</v>
       </c>
       <c r="R19" t="n">
-        <v>0.4724697267390421</v>
+        <v>-0.01347420974423283</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
       </c>
       <c r="T19" t="n">
-        <v>0.542604881378816</v>
+        <v>0.1394377019361652</v>
       </c>
       <c r="U19" t="n">
-        <v>0.4006545726540779</v>
+        <v>0.0234429266421449</v>
       </c>
       <c r="V19" t="n">
-        <v>0.1564912386897616</v>
+        <v>0.05263964621551442</v>
       </c>
       <c r="W19" t="n">
-        <v>0.6986462943685681</v>
+        <v>-0.04735530687233579</v>
       </c>
       <c r="X19" t="n">
-        <v>0.5621485546992223</v>
+        <v>0.02202370842718548</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.8391364000951872</v>
+        <v>-0.07010506085009445</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.576316473583395</v>
+        <v>0.05194541907834921</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.6983996272871209</v>
+        <v>0.06682519186151588</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.723888645651658</v>
+        <v>0.05028950103310643</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.007126627046541917</v>
+        <v>0.1586157715826989</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.6024774489704502</v>
+        <v>-0.1167848087268307</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.8030775490796895</v>
+        <v>-0.0004368757698515848</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.001241425512675166</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.0002675040042405418</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.03778891851176953</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>-0.01083361932558717</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>-0.1011479862806255</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.03208182927999126</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.1304334562437923</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>-0.0811239284334333</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.4181070024741373</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>-0.07507657708846505</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.2201923033011359</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.5582141111647377</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>-0.06676980191091191</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.04177259119858534</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>-0.03183369136037274</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>-0.03220248468591286</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:47">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5378484266466155</v>
+        <v>0.6528708836138274</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5765908965959076</v>
+        <v>0.7880923974020987</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7542539016952761</v>
+        <v>0.9351535865880873</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6413129188740824</v>
+        <v>0.6477773952303414</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5012504799159364</v>
+        <v>0.1836177116846543</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1924561716534136</v>
+        <v>0.8958897967020581</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0005399961919617146</v>
+        <v>0.5714749723913041</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1630009242596237</v>
+        <v>0.1817081238771506</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6311350072326224</v>
+        <v>0.6309224213230287</v>
       </c>
       <c r="K20" t="n">
-        <v>0.6211650254366872</v>
+        <v>0.02461640119991559</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4569769594829304</v>
+        <v>0.1763596584323462</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5123662564342377</v>
+        <v>0.2361310811192206</v>
       </c>
       <c r="N20" t="n">
-        <v>0.04865377411850311</v>
+        <v>0.9059506259239446</v>
       </c>
       <c r="O20" t="n">
-        <v>0.6482457388765507</v>
+        <v>0.7310731980197765</v>
       </c>
       <c r="P20" t="n">
-        <v>0.6361495447500319</v>
+        <v>0.2205477150864464</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.40816030482897</v>
+        <v>0.6038593185278408</v>
       </c>
       <c r="R20" t="n">
-        <v>0.4309586608189394</v>
+        <v>0.7526132479476071</v>
       </c>
       <c r="S20" t="n">
-        <v>0.5426048813788161</v>
+        <v>0.1394377019361653</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4872680549135511</v>
+        <v>0.4001374436215395</v>
       </c>
       <c r="V20" t="n">
-        <v>0.1758306089587659</v>
+        <v>0.8340015224035198</v>
       </c>
       <c r="W20" t="n">
-        <v>0.5661811620250137</v>
+        <v>0.4768073419367884</v>
       </c>
       <c r="X20" t="n">
-        <v>0.6041723628664023</v>
+        <v>0.6157858242612002</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.7179362959688881</v>
+        <v>0.7478546567231034</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.6780972577770019</v>
+        <v>0.5593825650195573</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.6014812582686839</v>
+        <v>0.5558613812945937</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.7535902168220993</v>
+        <v>0.637309533228582</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.01298729824550086</v>
+        <v>0.6386674022536262</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.6188338711131073</v>
+        <v>0.593023009926639</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.6707216062683817</v>
+        <v>0.2981874177796672</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.1862506547401228</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.3336148284185252</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.7354485236321892</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.8564897211337953</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.7915321670188383</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.8161004667947467</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.8376922372054624</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.8705702174688639</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.6841673804198095</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.8245121059267283</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.7375879378863957</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>-0.01793630650619839</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.8325014953150192</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.8237086472971387</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0.5145583841745507</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0.491633880798449</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:47">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3348757632206941</v>
+        <v>0.5340803635202724</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6675909179353035</v>
+        <v>0.5868451610919815</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4231737235820929</v>
+        <v>0.4197201757448202</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6538690121440685</v>
+        <v>0.7394245347571092</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4926437126661536</v>
+        <v>-0.08905594239415156</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2563041315229992</v>
+        <v>0.572794796210544</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03977817256976715</v>
+        <v>0.6602595622256539</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2136348615619653</v>
+        <v>0.06630862246930998</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5122207119305459</v>
+        <v>0.543762875953961</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5289809212491092</v>
+        <v>0.08790479215720844</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4428429676898274</v>
+        <v>0.1307585261639594</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4642116394254293</v>
+        <v>0.1949356909616562</v>
       </c>
       <c r="N21" t="n">
-        <v>0.161581481994374</v>
+        <v>0.4123119494817252</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6346558505025487</v>
+        <v>0.6447196137061999</v>
       </c>
       <c r="P21" t="n">
-        <v>0.4912796710067694</v>
+        <v>0.08597377548740111</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.6150325548487675</v>
+        <v>0.5704532044808684</v>
       </c>
       <c r="R21" t="n">
-        <v>0.7083948075356707</v>
+        <v>0.3514519595769038</v>
       </c>
       <c r="S21" t="n">
-        <v>0.400654572654078</v>
+        <v>0.0234429266421449</v>
       </c>
       <c r="T21" t="n">
-        <v>0.4872680549135511</v>
+        <v>0.4001374436215395</v>
       </c>
       <c r="U21" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
-        <v>0.2412441386095266</v>
+        <v>0.4587521233721482</v>
       </c>
       <c r="W21" t="n">
-        <v>0.4237396881386155</v>
+        <v>0.4022575451529742</v>
       </c>
       <c r="X21" t="n">
-        <v>0.4542502889843172</v>
+        <v>0.7714205690282201</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.5857091554469525</v>
+        <v>0.7150365964285369</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.5338826879137689</v>
+        <v>0.3770437421658697</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.641713475676452</v>
+        <v>0.7522796158134911</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.504182231234514</v>
+        <v>0.6433356491705901</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.01170990387702565</v>
+        <v>0.3351977005683626</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.4598820658288597</v>
+        <v>0.3703164777333712</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.3763569677245415</v>
+        <v>0.03953917688952207</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.1081340813413546</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.1046999682574084</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.4906298132902083</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.5083462383658838</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.5086718106057196</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.4374415435564521</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.6559620602721609</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.4666918594032914</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.3938850071951988</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.4719092299081696</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.6124891297735452</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.04412338465409008</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.5145505384865128</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0.4106378192309344</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0.6664242601717699</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0.4343590863908166</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:47">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.106146579810194</v>
+        <v>0.7419881979463839</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1886453931878824</v>
+        <v>0.801329831036071</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1447102232839535</v>
+        <v>0.6850891396981527</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1939842959158732</v>
+        <v>0.6583200094489243</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1583803751253919</v>
+        <v>0.1673075664107332</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9234450022002699</v>
+        <v>0.7441143034028393</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.009095289589638313</v>
+        <v>0.5440011656574637</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9776568068346874</v>
+        <v>0.1661868284719892</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1626574504921275</v>
+        <v>0.5881029229841246</v>
       </c>
       <c r="K22" t="n">
-        <v>0.181793540322003</v>
+        <v>0.00298324776012932</v>
       </c>
       <c r="L22" t="n">
-        <v>0.165903956162638</v>
+        <v>0.1603951460912884</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1348149062622216</v>
+        <v>0.1991761201198328</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0009287354574826405</v>
+        <v>0.9000536891514604</v>
       </c>
       <c r="O22" t="n">
-        <v>0.187868461605474</v>
+        <v>0.728472761258541</v>
       </c>
       <c r="P22" t="n">
-        <v>0.1579727068814249</v>
+        <v>0.1918443303178066</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.5052518446491625</v>
+        <v>0.6057443496707342</v>
       </c>
       <c r="R22" t="n">
-        <v>0.4508686433510783</v>
+        <v>0.8560150174850814</v>
       </c>
       <c r="S22" t="n">
-        <v>0.1564912386897617</v>
+        <v>0.05263964621551442</v>
       </c>
       <c r="T22" t="n">
-        <v>0.1758306089587659</v>
+        <v>0.8340015224035197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.2412441386095266</v>
+        <v>0.4587521233721481</v>
       </c>
       <c r="V22" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="W22" t="n">
-        <v>0.1298295920238119</v>
+        <v>0.4521140079389513</v>
       </c>
       <c r="X22" t="n">
-        <v>0.1468493615507101</v>
+        <v>0.6426102137169087</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.1828618385187553</v>
+        <v>0.7163726724124113</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.1487671220504053</v>
+        <v>0.5364961627883259</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.180134733377463</v>
+        <v>0.5830635320339533</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.1633340409485846</v>
+        <v>0.6297425846017932</v>
       </c>
       <c r="AC22" t="n">
-        <v>-0.04120695200544879</v>
+        <v>0.4951110654179218</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.1713571055369251</v>
+        <v>0.4666047588742134</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.1391802418054039</v>
+        <v>0.2359135812798016</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.1581330669338992</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.3243150808252651</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.812728416122058</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.6833075352303418</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.8148092758806115</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.9181129268745567</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.8062284883862615</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.8931348158993005</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.573072317644117</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.868947661283493</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.7424572605641555</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>-0.03137548817919</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.839114270350713</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.9135842994658609</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0.4873756449161216</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0.5428690217562523</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:47">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9243089707439972</v>
+        <v>0.390351421206775</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6095123069940775</v>
+        <v>0.4727935379682711</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7401094326569597</v>
+        <v>0.4485953956711638</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7122826070428047</v>
+        <v>0.4003658055665211</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6106418156845929</v>
+        <v>0.3616890235862866</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1398537114034629</v>
+        <v>0.4739423461856629</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.006646397999886306</v>
+        <v>0.377096443711339</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1339858731439806</v>
+        <v>0.4472274775850861</v>
       </c>
       <c r="J23" t="n">
-        <v>0.7495649726603117</v>
+        <v>0.7812536299744158</v>
       </c>
       <c r="K23" t="n">
-        <v>0.7723342645977455</v>
+        <v>-0.02534228367322925</v>
       </c>
       <c r="L23" t="n">
-        <v>0.6844549024703528</v>
+        <v>0.5183682427112274</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6677522669379694</v>
+        <v>0.2279857227301836</v>
       </c>
       <c r="N23" t="n">
-        <v>0.04183430282435191</v>
+        <v>0.4696510491361284</v>
       </c>
       <c r="O23" t="n">
-        <v>0.7324562808574009</v>
+        <v>0.4697592179548841</v>
       </c>
       <c r="P23" t="n">
-        <v>0.8178774906814735</v>
+        <v>0.3953668108105719</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.397989718973505</v>
+        <v>0.4403113313251044</v>
       </c>
       <c r="R23" t="n">
-        <v>0.509964321105233</v>
+        <v>0.3822713722516778</v>
       </c>
       <c r="S23" t="n">
-        <v>0.6986462943685681</v>
+        <v>-0.04735530687233579</v>
       </c>
       <c r="T23" t="n">
-        <v>0.5661811620250137</v>
+        <v>0.4768073419367884</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4237396881386156</v>
+        <v>0.4022575451529742</v>
       </c>
       <c r="V23" t="n">
-        <v>0.1298295920238119</v>
+        <v>0.4521140079389513</v>
       </c>
       <c r="W23" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="X23" t="n">
-        <v>0.7423213334906873</v>
+        <v>0.5180979034376429</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.7965644440144281</v>
+        <v>0.4273826654928268</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.5309229659663764</v>
+        <v>0.8935815832951204</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.7539392806771706</v>
+        <v>0.4125842365174315</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.7240773341463211</v>
+        <v>0.4089769612724628</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.01990381613049897</v>
+        <v>0.6300677433019732</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.7659633975144848</v>
+        <v>0.8888723436804266</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.5440579174684858</v>
+        <v>0.2978658737565184</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.4915028066974633</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0.5905569684008789</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0.4122318586086775</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0.7165121651919104</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0.6828193586124653</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0.4386685432061868</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0.4778771110083272</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0.4518319308032815</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0.3411912216126671</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0.6646270228173886</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0.4163500527714833</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>-0.06687982828963919</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0.644044353178971</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>0.4333553112457075</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>0.3500545238306128</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0.5110682712047929</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:47">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6783994425803209</v>
+        <v>0.7616293445028748</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6493037843064869</v>
+        <v>0.7836203721964975</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6282665690397209</v>
+        <v>0.6720029687166273</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7100970559947051</v>
+        <v>0.9667104431220571</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5075388877253093</v>
+        <v>0.2354899670149102</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1501297505859588</v>
+        <v>0.7848154895464884</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.006855939124834591</v>
+        <v>0.6405892556513563</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1565682938042334</v>
+        <v>0.03349521948993303</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9526685967973555</v>
+        <v>0.6532129245938048</v>
       </c>
       <c r="K24" t="n">
-        <v>0.700379740198237</v>
+        <v>0.07635189102291702</v>
       </c>
       <c r="L24" t="n">
-        <v>0.5703323056247072</v>
+        <v>0.008629590433837727</v>
       </c>
       <c r="M24" t="n">
-        <v>0.8866356800179821</v>
+        <v>0.2077962767030849</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0345745934706423</v>
+        <v>0.5261037294724715</v>
       </c>
       <c r="O24" t="n">
-        <v>0.8103394734004028</v>
+        <v>0.8545108184778789</v>
       </c>
       <c r="P24" t="n">
-        <v>0.9215056400169568</v>
+        <v>0.2110303470313333</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.421450536288394</v>
+        <v>0.7442793516916838</v>
       </c>
       <c r="R24" t="n">
-        <v>0.4990217777057966</v>
+        <v>0.4484068366492928</v>
       </c>
       <c r="S24" t="n">
-        <v>0.5621485546992222</v>
+        <v>0.02202370842718548</v>
       </c>
       <c r="T24" t="n">
-        <v>0.6041723628664023</v>
+        <v>0.6157858242612002</v>
       </c>
       <c r="U24" t="n">
-        <v>0.4542502889843172</v>
+        <v>0.7714205690282201</v>
       </c>
       <c r="V24" t="n">
-        <v>0.1468493615507101</v>
+        <v>0.6426102137169087</v>
       </c>
       <c r="W24" t="n">
-        <v>0.7423213334906873</v>
+        <v>0.5180979034376429</v>
       </c>
       <c r="X24" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.7913033392908216</v>
+        <v>0.9457805378112494</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.5243574785179842</v>
+        <v>0.482399114045707</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.8695149824025925</v>
+        <v>0.9684262384738211</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.7269772614980851</v>
+        <v>0.6139713288698914</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.03784429879268045</v>
+        <v>0.5387843456873619</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.9382822690533748</v>
+        <v>0.6257329683059091</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.5351176312285687</v>
+        <v>0.01937157924649723</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0.0233462278201222</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0.2616389669400205</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0.7261927836331765</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0.6882318181882603</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0.6387187190873133</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0.6127490178567536</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0.8846153144868675</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0.6997262641163126</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0.632307219410305</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0.5480309540604672</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0.9094638260945951</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0.2684179229986635</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0.6654609370398969</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0.4933407537702515</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0.7315408472624747</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0.445097038035796</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:47">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7160348191084581</v>
+        <v>0.739458050746915</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8002916213046934</v>
+        <v>0.8616799412205989</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8726091551840834</v>
+        <v>0.7075435630105009</v>
       </c>
       <c r="E25" t="n">
-        <v>0.937221811074926</v>
+        <v>0.9355891964581662</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8458231696974484</v>
+        <v>0.02741881383436207</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1728239948102093</v>
+        <v>0.8323755454146593</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02250762396033229</v>
+        <v>0.7744851652601097</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1619254303175267</v>
+        <v>0.08410707323851095</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8711552271560843</v>
+        <v>0.6215360376547162</v>
       </c>
       <c r="K25" t="n">
-        <v>0.9171188017343215</v>
+        <v>0.102329134881165</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7989774897708974</v>
+        <v>0.1079577138055019</v>
       </c>
       <c r="M25" t="n">
-        <v>0.7315916931460219</v>
+        <v>0.1963953135625982</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1325345614766203</v>
+        <v>0.7081544102763336</v>
       </c>
       <c r="O25" t="n">
-        <v>0.8365407126115937</v>
+        <v>0.8789319904122089</v>
       </c>
       <c r="P25" t="n">
-        <v>0.8068420918427355</v>
+        <v>0.08277785364899927</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.457711955577461</v>
+        <v>0.7975417970627379</v>
       </c>
       <c r="R25" t="n">
-        <v>0.584004991169763</v>
+        <v>0.5682966346402848</v>
       </c>
       <c r="S25" t="n">
-        <v>0.8391364000951873</v>
+        <v>-0.07010506085009445</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7179362959688881</v>
+        <v>0.7478546567231034</v>
       </c>
       <c r="U25" t="n">
-        <v>0.5857091554469525</v>
+        <v>0.7150365964285369</v>
       </c>
       <c r="V25" t="n">
-        <v>0.1828618385187553</v>
+        <v>0.7163726724124112</v>
       </c>
       <c r="W25" t="n">
-        <v>0.7965644440144281</v>
+        <v>0.4273826654928268</v>
       </c>
       <c r="X25" t="n">
-        <v>0.7913033392908215</v>
+        <v>0.9457805378112495</v>
       </c>
       <c r="Y25" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.7341317606328726</v>
+        <v>0.4601609810453832</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.7906859624946136</v>
+        <v>0.9404948892436786</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.8447144524759995</v>
+        <v>0.7802891652499723</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.009614319383990105</v>
+        <v>0.4423452520916434</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.8129918440890436</v>
+        <v>0.5780908777714409</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.7486940380969161</v>
+        <v>0.1339469667040042</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.1084492552358956</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.1986956494833224</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.7870019185100461</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.6598154795644644</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.6683748664387038</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.6737667959972455</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.9203113591516028</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.7178516108468798</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0.6111102933161496</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.6863466416731877</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0.8479296355445345</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>-0.03574958864023926</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0.7407780961838737</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.6952712739948594</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0.7546831347837701</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0.5503322894311335</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:47">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4151087905395429</v>
+        <v>0.4342847242925439</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7219919035305837</v>
+        <v>0.5687214040180898</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5990754125816741</v>
+        <v>0.5273066290142029</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7828466800642309</v>
+        <v>0.4597233455500433</v>
       </c>
       <c r="F26" t="n">
-        <v>0.682494346807478</v>
+        <v>0.338209359288649</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1317310267725612</v>
+        <v>0.5832375223941895</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1747858358726508</v>
+        <v>0.5137514025732999</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1166872972589501</v>
+        <v>0.3626151471451466</v>
       </c>
       <c r="J26" t="n">
-        <v>0.603027549273863</v>
+        <v>0.8057035140600616</v>
       </c>
       <c r="K26" t="n">
-        <v>0.6727250417339432</v>
+        <v>0.01096454334716185</v>
       </c>
       <c r="L26" t="n">
-        <v>0.6226090796881217</v>
+        <v>0.3916112526134983</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5715661917027377</v>
+        <v>0.2543127838473178</v>
       </c>
       <c r="N26" t="n">
-        <v>0.4190398237404721</v>
+        <v>0.5330005385620133</v>
       </c>
       <c r="O26" t="n">
-        <v>0.6871864297430842</v>
+        <v>0.5816935035010431</v>
       </c>
       <c r="P26" t="n">
-        <v>0.5722459908184687</v>
+        <v>0.413775562164804</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.336929087597084</v>
+        <v>0.4917446326204031</v>
       </c>
       <c r="R26" t="n">
-        <v>0.4358760770201438</v>
+        <v>0.4850899121820933</v>
       </c>
       <c r="S26" t="n">
-        <v>0.5763164735833951</v>
+        <v>0.0519454190783492</v>
       </c>
       <c r="T26" t="n">
-        <v>0.6780972577770019</v>
+        <v>0.5593825650195573</v>
       </c>
       <c r="U26" t="n">
-        <v>0.533882687913769</v>
+        <v>0.3770437421658697</v>
       </c>
       <c r="V26" t="n">
-        <v>0.1487671220504053</v>
+        <v>0.5364961627883259</v>
       </c>
       <c r="W26" t="n">
-        <v>0.5309229659663764</v>
+        <v>0.8935815832951204</v>
       </c>
       <c r="X26" t="n">
-        <v>0.5243574785179841</v>
+        <v>0.482399114045707</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.7341317606328726</v>
+        <v>0.4601609810453832</v>
       </c>
       <c r="Z26" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.5040554196534486</v>
+        <v>0.4773392279416786</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.7082316137547783</v>
+        <v>0.4322917644983652</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.2287724412653311</v>
+        <v>0.7139154148555952</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.5524075758547116</v>
+        <v>0.7929369529644923</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.4919508626977053</v>
+        <v>0.3556312902630314</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.4453721703090373</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.5517307501446516</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.5133060357661718</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.7140530294134823</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0.7043363427521607</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.5074774120553339</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0.5904565413182491</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.5291956406846321</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0.4385264921752922</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.7309100193299982</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0.5172881072829771</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>-0.03398462475574285</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0.6850261029959593</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0.5198509847149909</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0.3715609642723543</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0.5403194067094892</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:47">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7286692460452562</v>
+        <v>0.7398134752671007</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7104648774012899</v>
+        <v>0.7830050086356074</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6956307479956676</v>
+        <v>0.5371972491906096</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7451104229134013</v>
+        <v>0.9852425741794998</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5533998436800724</v>
+        <v>0.1342641759510329</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1938182475154655</v>
+        <v>0.7360399243657968</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.02309238251748845</v>
+        <v>0.8764486661391735</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1854563386796689</v>
+        <v>0.1341391588852711</v>
       </c>
       <c r="J27" t="n">
-        <v>0.8671888967040369</v>
+        <v>0.6476086890945421</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7864077703374638</v>
+        <v>0.01585661972761618</v>
       </c>
       <c r="L27" t="n">
-        <v>0.7451822840361079</v>
+        <v>0.1196114861096779</v>
       </c>
       <c r="M27" t="n">
-        <v>0.7892940430596739</v>
+        <v>0.2485683775045685</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.07116028674121108</v>
+        <v>0.714059103909457</v>
       </c>
       <c r="O27" t="n">
-        <v>0.8170510611329462</v>
+        <v>0.8927611234562969</v>
       </c>
       <c r="P27" t="n">
-        <v>0.8798441957086062</v>
+        <v>0.1891535557094218</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.6477569340038793</v>
+        <v>0.808224498738061</v>
       </c>
       <c r="R27" t="n">
-        <v>0.7202004595687602</v>
+        <v>0.5238365477869539</v>
       </c>
       <c r="S27" t="n">
-        <v>0.698399627287121</v>
+        <v>0.06682519186151588</v>
       </c>
       <c r="T27" t="n">
-        <v>0.6014812582686839</v>
+        <v>0.5558613812945937</v>
       </c>
       <c r="U27" t="n">
-        <v>0.641713475676452</v>
+        <v>0.7522796158134911</v>
       </c>
       <c r="V27" t="n">
-        <v>0.180134733377463</v>
+        <v>0.5830635320339533</v>
       </c>
       <c r="W27" t="n">
-        <v>0.7539392806771708</v>
+        <v>0.4125842365174315</v>
       </c>
       <c r="X27" t="n">
-        <v>0.8695149824025925</v>
+        <v>0.9684262384738213</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.7906859624946136</v>
+        <v>0.9404948892436787</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.5040554196534486</v>
+        <v>0.4773392279416786</v>
       </c>
       <c r="AA27" t="n">
         <v>1</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.7169397999561645</v>
+        <v>0.5451579417520608</v>
       </c>
       <c r="AC27" t="n">
-        <v>-0.06974250422634803</v>
+        <v>0.4087907790810148</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.8497060562461062</v>
+        <v>0.613575596826879</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.5297331290395416</v>
+        <v>0.2019777214585121</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.1582804711934819</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.2311274264033171</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0.695443049389183</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0.6950645801678442</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0.6950603347190851</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0.5622679875692923</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0.8416182763073914</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0.7062251468018194</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0.5760232446931606</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0.6920302187476081</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0.7296614566127445</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0.007437196620149659</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0.7587434849110872</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0.5985567138562017</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0.7956443217784037</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0.5997010905952006</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:47">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6769497179920727</v>
+        <v>0.5119409386602086</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6693816613426683</v>
+        <v>0.7701688920985423</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7448377466546758</v>
+        <v>0.573351004907852</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7842533374600967</v>
+        <v>0.7428880777219934</v>
       </c>
       <c r="F28" t="n">
-        <v>0.7167703906833742</v>
+        <v>0.1789350708379623</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1647228192099138</v>
+        <v>0.6412278644299702</v>
       </c>
       <c r="H28" t="n">
-        <v>0.09115033391696339</v>
+        <v>0.5043852660831878</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1522495039898094</v>
+        <v>0.1862840375900234</v>
       </c>
       <c r="J28" t="n">
-        <v>0.7558404611932926</v>
+        <v>0.6059035109263169</v>
       </c>
       <c r="K28" t="n">
-        <v>0.8105462260992805</v>
+        <v>0.0009847869527942819</v>
       </c>
       <c r="L28" t="n">
-        <v>0.7201465702683135</v>
+        <v>0.1594118859183767</v>
       </c>
       <c r="M28" t="n">
-        <v>0.6654601087868308</v>
+        <v>0.2639750290596518</v>
       </c>
       <c r="N28" t="n">
-        <v>0.2239410570199311</v>
+        <v>0.6064589864569505</v>
       </c>
       <c r="O28" t="n">
-        <v>0.7360296545592701</v>
+        <v>0.6195295044798922</v>
       </c>
       <c r="P28" t="n">
-        <v>0.7434206019756217</v>
+        <v>0.243833214747589</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.4001921782206943</v>
+        <v>0.4551975093051682</v>
       </c>
       <c r="R28" t="n">
-        <v>0.5113842379403085</v>
+        <v>0.5008161866799198</v>
       </c>
       <c r="S28" t="n">
-        <v>0.723888645651658</v>
+        <v>0.05028950103310643</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7535902168220991</v>
+        <v>0.6373095332285819</v>
       </c>
       <c r="U28" t="n">
-        <v>0.5041822312345141</v>
+        <v>0.6433356491705901</v>
       </c>
       <c r="V28" t="n">
-        <v>0.1633340409485846</v>
+        <v>0.6297425846017932</v>
       </c>
       <c r="W28" t="n">
-        <v>0.7240773341463211</v>
+        <v>0.4089769612724628</v>
       </c>
       <c r="X28" t="n">
-        <v>0.7269772614980851</v>
+        <v>0.6139713288698914</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.8447144524759995</v>
+        <v>0.7802891652499723</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.7082316137547783</v>
+        <v>0.4322917644983652</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.7169397999561644</v>
+        <v>0.5451579417520608</v>
       </c>
       <c r="AB28" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.1543379911774153</v>
+        <v>0.4876879167978393</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.7421590793229704</v>
+        <v>0.5228402466534214</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.6845290647568542</v>
+        <v>0.2952492553832284</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.1736439048336992</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.3088890010162455</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0.5503801478960846</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0.5359242535271626</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0.5565453297887643</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0.5900602068469349</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0.7162852386161095</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0.6378173187869112</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0.675903863222821</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0.5846709833523199</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0.7501966584270494</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0.01417463818792019</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0.5817867845523684</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0.605074364673673</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0.6490292362469766</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0.4464623361435851</v>
       </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:47">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.03389911804019786</v>
+        <v>0.3450217450156738</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.003202343294224045</v>
+        <v>0.5376460283885922</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.01854838911037476</v>
+        <v>0.6702397474561844</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.001668614753378236</v>
+        <v>0.4379002583607351</v>
       </c>
       <c r="F29" t="n">
-        <v>0.007854883887866052</v>
+        <v>0.3588093782568585</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.01943603099189666</v>
+        <v>0.6572314821132115</v>
       </c>
       <c r="H29" t="n">
-        <v>0.3871582208211019</v>
+        <v>0.4931125900643329</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.01974984974707968</v>
+        <v>0.2540630271706374</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.09676268930430879</v>
+        <v>0.8179326438451029</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.001373630588937854</v>
+        <v>0.03897498281777429</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02773377539290177</v>
+        <v>0.2144185998702981</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.06070597011642272</v>
+        <v>0.3085950858146803</v>
       </c>
       <c r="N29" t="n">
-        <v>0.5584243621269004</v>
+        <v>0.5240868109649013</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.02060707929915238</v>
+        <v>0.5345423969362566</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.03321975187914415</v>
+        <v>0.387859508349981</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.07024881373489424</v>
+        <v>0.4446511809659937</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.0353119880523194</v>
+        <v>0.468522633067442</v>
       </c>
       <c r="S29" t="n">
-        <v>0.007126627046541918</v>
+        <v>0.1586157715826988</v>
       </c>
       <c r="T29" t="n">
-        <v>0.01298729824550086</v>
+        <v>0.6386674022536261</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01170990387702565</v>
+        <v>0.3351977005683626</v>
       </c>
       <c r="V29" t="n">
-        <v>-0.04120695200544878</v>
+        <v>0.4951110654179218</v>
       </c>
       <c r="W29" t="n">
-        <v>-0.01990381613049897</v>
+        <v>0.6300677433019732</v>
       </c>
       <c r="X29" t="n">
-        <v>-0.03784429879268045</v>
+        <v>0.538784345687362</v>
       </c>
       <c r="Y29" t="n">
-        <v>-0.009614319383990105</v>
+        <v>0.4423452520916434</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.2287724412653311</v>
+        <v>0.7139154148555951</v>
       </c>
       <c r="AA29" t="n">
-        <v>-0.06974250422634802</v>
+        <v>0.4087907790810148</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.1543379911774153</v>
+        <v>0.4876879167978393</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD29" t="n">
-        <v>-0.02911398564746129</v>
+        <v>0.9531921688309998</v>
       </c>
       <c r="AE29" t="n">
-        <v>-0.03933288199715344</v>
+        <v>0.4715227808724667</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0.2406276650894409</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0.4915744188163899</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0.428173645355058</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0.765742842451558</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0.6603366648971924</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0.4611980703921875</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0.5921447773448522</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0.5203994142290028</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0.5345405880655194</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0.6555330193353955</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>0.5102767052759563</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0.0118470864817368</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0.5973032746878943</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>0.4652880406078361</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>0.3871297463141621</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0.4230795270216622</v>
       </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:47">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.681994877787935</v>
+        <v>0.5252999342881176</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6642847167262821</v>
+        <v>0.6650068481361137</v>
       </c>
       <c r="D30" t="n">
-        <v>0.645204242453618</v>
+        <v>0.568279565694024</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7385748259220337</v>
+        <v>0.6079605624743735</v>
       </c>
       <c r="F30" t="n">
-        <v>0.5718544786359983</v>
+        <v>0.2004123210140014</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1741052205876752</v>
+        <v>0.6686946680791547</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.007331680999835041</v>
+        <v>0.5942085965674578</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1769334381473934</v>
+        <v>0.03677793913280166</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9444385322644421</v>
+        <v>0.9545394554037199</v>
       </c>
       <c r="K30" t="n">
-        <v>0.7353717401794632</v>
+        <v>-0.08749831759475646</v>
       </c>
       <c r="L30" t="n">
-        <v>0.6237656978038564</v>
+        <v>0.08867327522354748</v>
       </c>
       <c r="M30" t="n">
-        <v>0.8754559510903152</v>
+        <v>0.1534185220423274</v>
       </c>
       <c r="N30" t="n">
-        <v>0.04390445444985295</v>
+        <v>0.5170320562632622</v>
       </c>
       <c r="O30" t="n">
-        <v>0.8193017843423726</v>
+        <v>0.6541927356309423</v>
       </c>
       <c r="P30" t="n">
-        <v>0.9160347974342763</v>
+        <v>0.1360845534323873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.419747313532487</v>
+        <v>0.646990754603222</v>
       </c>
       <c r="R30" t="n">
-        <v>0.5122763164222295</v>
+        <v>0.3266798819946473</v>
       </c>
       <c r="S30" t="n">
-        <v>0.6024774489704502</v>
+        <v>-0.1167848087268307</v>
       </c>
       <c r="T30" t="n">
-        <v>0.6188338711131073</v>
+        <v>0.593023009926639</v>
       </c>
       <c r="U30" t="n">
-        <v>0.4598820658288598</v>
+        <v>0.3703164777333712</v>
       </c>
       <c r="V30" t="n">
-        <v>0.1713571055369251</v>
+        <v>0.4666047588742134</v>
       </c>
       <c r="W30" t="n">
-        <v>0.7659633975144848</v>
+        <v>0.8888723436804264</v>
       </c>
       <c r="X30" t="n">
-        <v>0.9382822690533748</v>
+        <v>0.6257329683059092</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.8129918440890436</v>
+        <v>0.5780908777714409</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.5524075758547116</v>
+        <v>0.7929369529644922</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.8497060562461061</v>
+        <v>0.613575596826879</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.7421590793229705</v>
+        <v>0.5228402466534215</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.02911398564746129</v>
+        <v>0.9531921688309997</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.5289144620079446</v>
+        <v>0.02099415700015694</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.08423344088581027</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.372922836642248</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0.5521257640207702</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0.7728745955211221</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0.7531463006010891</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0.4767493624518068</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0.7019734291074331</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0.5438599738377308</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0.5610842566982315</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0.7084988048343097</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0.594580606675188</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>-0.03015158697049111</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0.745445631346875</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0.4619756242852521</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0.4875908908850086</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0.4366439830194406</v>
       </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:47">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5252420803987656</v>
+        <v>0.1015800311697554</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5170664225757344</v>
+        <v>0.2716844546034617</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8243409367610949</v>
+        <v>0.3495987266791353</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6429856602348749</v>
+        <v>0.1834979969433841</v>
       </c>
       <c r="F31" t="n">
-        <v>0.6388789034652838</v>
+        <v>0.4140376244504138</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1434076675167212</v>
+        <v>0.3383673438812733</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.01593536253595426</v>
+        <v>0.2922007181956948</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1389736205738329</v>
+        <v>0.3074283952136986</v>
       </c>
       <c r="J31" t="n">
-        <v>0.5290136136937212</v>
+        <v>0.3647864685839405</v>
       </c>
       <c r="K31" t="n">
-        <v>0.6855665083375637</v>
+        <v>0.03159497555867025</v>
       </c>
       <c r="L31" t="n">
-        <v>0.5869428541092713</v>
+        <v>0.208773324303199</v>
       </c>
       <c r="M31" t="n">
-        <v>0.4226148881022257</v>
+        <v>0.2040548935473929</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.04726649916297749</v>
+        <v>0.215408915263286</v>
       </c>
       <c r="O31" t="n">
-        <v>0.5374101100274766</v>
+        <v>0.2810560506929842</v>
       </c>
       <c r="P31" t="n">
-        <v>0.5217335365324768</v>
+        <v>0.3031152796883776</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.3259865173997938</v>
+        <v>0.2844778165698245</v>
       </c>
       <c r="R31" t="n">
-        <v>0.372610584641643</v>
+        <v>0.1915033361028311</v>
       </c>
       <c r="S31" t="n">
-        <v>0.8030775490796894</v>
+        <v>-0.0004368757698515848</v>
       </c>
       <c r="T31" t="n">
-        <v>0.6707216062683817</v>
+        <v>0.2981874177796672</v>
       </c>
       <c r="U31" t="n">
-        <v>0.3763569677245415</v>
+        <v>0.03953917688952207</v>
       </c>
       <c r="V31" t="n">
-        <v>0.1391802418054039</v>
+        <v>0.2359135812798016</v>
       </c>
       <c r="W31" t="n">
-        <v>0.5440579174684858</v>
+        <v>0.2978658737565184</v>
       </c>
       <c r="X31" t="n">
-        <v>0.5351176312285687</v>
+        <v>0.01937157924649723</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.7486940380969161</v>
+        <v>0.1339469667040042</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.4919508626977053</v>
+        <v>0.3556312902630313</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.5297331290395417</v>
+        <v>0.2019777214585121</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.6845290647568543</v>
+        <v>0.2952492553832284</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.03933288199715344</v>
+        <v>0.4715227808724667</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.5289144620079446</v>
+        <v>0.02099415700015694</v>
       </c>
       <c r="AE31" t="n">
         <v>1</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0.2236890088114842</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0.4738661900022363</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0.1373402309423015</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0.2019744007350965</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0.2302386073236694</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0.2238676698009605</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0.2720099008745577</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0.2507921660103328</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0.3085503347814129</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0.2712992532006959</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>0.2406970418409631</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>-0.02554066008662421</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0.2362374223466697</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>0.2126980852221485</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>0.1865044134604541</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>0.1204798850265932</v>
+      </c>
+    </row>
+    <row r="32" spans="1:47">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.1041704254072568</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.172189124330391</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.187955774104733</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.1468201449492947</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.4842343346651335</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.1932339771111495</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.1594489691401996</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.9234184656172638</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.2379341663124656</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-0.008035617310293969</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.9773541548756089</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.1629242320462017</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.1589616972312994</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.182047759085859</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.5655477893080307</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.1648096301951139</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.1317824290325725</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.001241425512675166</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.1862506547401228</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.1081340813413546</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.1581330669338992</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.4915028066974633</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.0233462278201222</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.1084492552358956</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.4453721703090373</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.1582804711934819</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.1736439048336992</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.2406276650894409</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.08423344088581027</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.2236890088114842</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.6640566835390902</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0.1266932968217671</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0.09980505572315229</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0.1497103171063268</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0.1446622248493888</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0.1827882156484537</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0.1423340160736764</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0.1503117225467415</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0.1754122465707891</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0.1663766679635826</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>-0.04051228389260823</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0.1667085823713153</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0.1683981223473897</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0.1437950105547111</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0.3682557473614093</v>
+      </c>
+    </row>
+    <row r="33" spans="1:47">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.2389570265240855</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.3074555041611442</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.2994841064483368</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.2738953116224512</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.7797132884146294</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.303386839281276</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.2306408206466297</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.7308266218576952</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.4902928159249296</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.004990285459758324</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.6387548862832357</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.2814256236892633</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.3165979966218619</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.2918332161367154</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.612383345788858</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.2088558277553094</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.2849234717232491</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.0002675040042405418</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.3336148284185252</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.1046999682574084</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.3243150808252651</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.590556968400879</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.2616389669400205</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.1986956494833224</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.5517307501446516</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.2311274264033171</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.3088890010162455</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.4915744188163899</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.372922836642248</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.4738661900022363</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.6640566835390902</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0.2707440167803358</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0.3713834287233705</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0.3948051782401552</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0.2933331283056511</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0.3038747242841354</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0.3154585969572882</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0.2476095970015571</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0.3947153710624175</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0.2799497856887172</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>-0.03449794747156603</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0.3554295875604756</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0.298760095125759</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0.2439419836071823</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0.3854841201044178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:47">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.9231848103241036</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.7792554761952716</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.61009797101814</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.7335706333906157</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.1388187837475638</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.7084330415467592</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.5983007847945919</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.1363245481469274</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5844307213949027</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.006509708479369886</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.1321673256391073</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.1727001290558212</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.7544837233894287</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.7683992245812259</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.1559793565256656</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.6756714539324368</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.6686739007037842</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.03778891851176953</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.7354485236321892</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.4906298132902083</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.8127284161220579</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.4122318586086775</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.7261927836331764</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.7870019185100461</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.5133060357661718</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0.695443049389183</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0.5503801478960846</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0.428173645355058</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0.5521257640207701</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0.1373402309423016</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0.1266932968217671</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0.2707440167803358</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0.6972994208484908</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0.7243015122668272</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0.7457858423508564</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>0.7919328487938535</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0.7438395099220028</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>0.5241433331199782</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>0.7538988602543691</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>0.722007677338757</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>-0.01875139713539881</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0.811799413232243</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>0.7639853873292825</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>0.5020045152646128</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>0.6658780333386197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:47">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.6925216404439025</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.7368993694382435</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.8627208176559751</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.6897072788541332</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.03815850458327914</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.8187150349846175</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.581992706059365</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.07217854866821638</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.769620616914786</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.1205337558817272</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.1192435996879278</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.1793709724215896</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.7453315565910441</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.7870527922611837</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.1333697508772396</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.7116627113706889</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.6667357754638055</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-0.01083361932558717</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.8564897211337953</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.5083462383658839</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.6833075352303417</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.7165121651919104</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.6882318181882603</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.6598154795644644</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.7140530294134821</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.6950645801678442</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.5359242535271626</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.7657428424515579</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.7728745955211221</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.2019744007350965</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.09980505572315229</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.3713834287233705</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0.6972994208484908</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0.8242772416618349</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.7286228546994066</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0.7605426876633973</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0.7882656497860192</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0.6586437192543104</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0.871064946183399</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0.662491496877244</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0.1436057621334862</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0.8453673389098624</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0.6852473877483338</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0.4836958043085832</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0.4835052581413768</v>
+      </c>
+    </row>
+    <row r="36" spans="1:47">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.707334740460676</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.7366583269538118</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.6964248376393434</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.6887931270314254</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.1274977057096405</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.746891878968882</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.547926234624483</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.1561169599005272</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.7799897809747918</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.02295808737139909</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.1683618392023194</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.1969814696606496</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.8526787641461147</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.7779595529775306</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.2095724055482065</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.7407164220053296</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.8022819925168967</v>
+      </c>
+      <c r="S36" t="n">
+        <v>-0.1011479862806255</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.7915321670188382</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.5086718106057196</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.8148092758806116</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.6828193586124653</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.6387187190873133</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.6683748664387038</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.7043363427521607</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.695060334719085</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.5565453297887641</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.6603366648971926</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.753146300601089</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.2302386073236694</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.1497103171063268</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0.3948051782401553</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0.7243015122668273</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0.8242772416618349</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0.8816483009689798</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0.788494069624275</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0.8696817363003004</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0.495129975364591</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0.9285246907624519</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0.7187164091348482</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>-0.02352164506740207</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0.9226922025897404</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0.8340295904517722</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0.5066742748755005</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0.5882983674648274</v>
+      </c>
+    </row>
+    <row r="37" spans="1:47">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.6850626832545015</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.767563518857423</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.6534980699573955</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.6236817417915358</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.1428840759964365</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.7105711621723604</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.5011768917480655</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.1476316649617235</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5723263288988316</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.005289424103619619</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.1560775576441362</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.220714134108096</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.9541078476603315</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.7014017498374281</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.1607592420919915</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.5679831804310084</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.8889902659021335</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.03208182927999125</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.8161004667947467</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.4374415435564521</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.9181129268745567</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.4386685432061868</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.6127490178567536</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.6737667959972454</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.5074774120553339</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.5622679875692923</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.5900602068469349</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.4611980703921875</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.4767493624518068</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.2238676698009605</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.1446622248493888</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0.2933331283056511</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0.7457858423508564</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0.7286228546994066</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0.8816483009689799</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0.7900736672034108</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0.9516947815428126</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0.5211948265794756</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0.8712046516117915</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0.725163232971657</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>-0.03454485630564745</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0.8665778605496143</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0.9401166515147233</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0.5001262139571828</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0.5119504810681639</v>
+      </c>
+    </row>
+    <row r="38" spans="1:47">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.7119673341481394</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.8953354952542717</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.8013432922201142</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.873762856004173</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.1672618749641918</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.9369581148363311</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.8411115825551173</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.1705017055800071</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.6786882725069509</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.02285805783494845</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.1630617154221255</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.2569494741637096</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.8630923961595697</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.9173358490427147</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.2188050838531827</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.795554132670181</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.7285361009622435</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.1304334562437923</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.8376922372054624</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.6559620602721609</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.8062284883862615</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.4778771110083271</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.8846153144868674</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.9203113591516029</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.5904565413182491</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.8416182763073914</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.7162852386161095</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.5921447773448522</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.7019734291074331</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.2720099008745577</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.1827882156484537</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0.3038747242841354</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0.7919328487938535</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0.7605426876633974</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0.788494069624275</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.7900736672034107</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0.8469468071309048</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0.7323837171022829</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0.7914809107090894</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0.8477343485544703</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>-0.008077733755046706</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0.828434958559053</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0.8094281319438644</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0.7335668167902435</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0.5759418395238409</v>
+      </c>
+    </row>
+    <row r="39" spans="1:47">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.7030761922185317</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.8115768295874173</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.7651910724016525</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.7035753753484053</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.1790873901190393</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.8092097381689859</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.5766428307820011</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.1448037043456026</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.6038170009573306</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.07209477017011454</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.1463373294186011</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.2066361228260118</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.9136557647253852</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.8312606007876606</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.167926132906775</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.7633837514972922</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.8631334656764479</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-0.0811239284334333</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.8705702174688639</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.4666918594032915</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.8931348158993007</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.4518319308032815</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.6997262641163126</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.7178516108468798</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.529195640684632</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.7062251468018194</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.6378173187869112</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.5203994142290028</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.5438599738377308</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.2507921660103328</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.1423340160736764</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.3154585969572882</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0.7438395099220028</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0.7882656497860192</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0.8696817363003004</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.9516947815428126</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0.8469468071309049</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0.591068549107631</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0.8743679273683311</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0.7914553295206628</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>-0.1002590227304835</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0.8558779293700692</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0.9025731115844218</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0.5496184343979635</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0.5175025561754495</v>
+      </c>
+    </row>
+    <row r="40" spans="1:47">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.4073643435022994</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.6770624029876661</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.7222939856925616</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.5925472071586189</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.144890997050244</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.7830412195437916</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.6832725530487165</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.1314487801514963</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.4693166845748589</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.1747418890105959</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.1182153119355639</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.2088237080945133</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.6022174454383927</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.6737110760581493</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.2077690277430227</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.6234086891232671</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.5687272220937086</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.4181070024741373</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.6841673804198096</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.3938850071951987</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.573072317644117</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.3411912216126671</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.632307219410305</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.6111102933161496</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.4385264921752923</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.5760232446931607</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.675903863222821</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.5345405880655194</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.5610842566982314</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.3085503347814129</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.1503117225467415</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0.2476095970015571</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0.5241433331199782</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0.6586437192543103</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0.495129975364591</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.5211948265794756</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0.7323837171022829</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0.5910685491076311</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0.504653240333118</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0.7066611230984398</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0.2289269418816448</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0.506618661411691</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0.5494469606855183</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0.4721672586726073</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0.3488966688217694</v>
+      </c>
+    </row>
+    <row r="41" spans="1:47">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.7215399709837346</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.7674574992329786</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.7187915241967056</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.6873945760015612</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.2146399192923406</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.7496547387467163</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.5484391112470169</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.1857789294923511</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.7866158988318511</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.02081003746172119</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.1827123918835104</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.2195277159495015</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.8678227127857032</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.7880930202404286</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.2217276286608182</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.7416422754480579</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.7942030383124524</v>
+      </c>
+      <c r="S41" t="n">
+        <v>-0.07507657708846505</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.8245121059267282</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.4719092299081696</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.8689476612834931</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.6646270228173885</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.5480309540604672</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.6863466416731876</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.7309100193299981</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.6920302187476081</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.5846709833523198</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.6555330193353955</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.7084988048343097</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.2712992532006959</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.1754122465707891</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0.3947153710624175</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0.7538988602543691</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0.871064946183399</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0.928524690762452</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0.8712046516117915</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0.7914809107090894</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0.8743679273683311</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0.504653240333118</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0.7162813076602556</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>-0.06066496482344829</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0.9308105797411513</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0.8510507054362464</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0.5043853919897828</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0.575958496628565</v>
+      </c>
+    </row>
+    <row r="42" spans="1:47">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.6736908194739271</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.833988136840237</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.6718933239277272</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.7531685301793526</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.1522504869056055</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.7861354016231402</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.7144768129871181</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.1650612667900185</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.6206608920008406</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.09087275334197259</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.1552392600251936</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.2544544984356069</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.748490354653074</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.8125462966110226</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.2027987821739953</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.7171215925199458</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.6624529765224459</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.2201923033011359</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.7375879378863955</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.6124891297735452</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.7424572605641555</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.4163500527714833</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.9094638260945951</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.8479296355445345</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.5172881072829771</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.7296614566127445</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.7501966584270494</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.5102767052759563</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.594580606675188</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.240697041840963</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0.1663766679635826</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0.2799497856887172</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0.7220076773387571</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0.6624914968772438</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0.7187164091348484</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0.725163232971657</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0.8477343485544704</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0.7914553295206629</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0.7066611230984398</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0.7162813076602557</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.1529202969190125</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0.7464301990484216</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0.7376420336327699</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0.6774102072579746</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0.5214031067874199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:47">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.03106473827713571</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.001683930389472658</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-0.001553731544311762</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-0.01699201506224753</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.03069129125360574</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-0.0002443826269016061</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.00833881508764223</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-0.0192019012722198</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-0.06313662047617127</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.3871547705436934</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.01894309424195297</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.01492379460353477</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.08599671725866199</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-0.0003979672068366645</v>
+      </c>
+      <c r="P43" t="n">
+        <v>-0.07806432521723722</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.02830786136889436</v>
+      </c>
+      <c r="R43" t="n">
+        <v>-0.05691017429971665</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.5582141111647377</v>
+      </c>
+      <c r="T43" t="n">
+        <v>-0.01793630650619839</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.04412338465409008</v>
+      </c>
+      <c r="V43" t="n">
+        <v>-0.03137548817919</v>
+      </c>
+      <c r="W43" t="n">
+        <v>-0.06687982828963919</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.2684179229986635</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>-0.03574958864023926</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>-0.03398462475574286</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.007437196620149661</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.01417463818792019</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.0118470864817368</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>-0.03015158697049111</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>-0.02554066008662421</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>-0.04051228389260823</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>-0.03449794747156603</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>-0.01875139713539881</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0.1436057621334862</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>-0.02352164506740207</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>-0.03454485630564745</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>-0.008077733755046706</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>-0.1002590227304835</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0.2289269418816448</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>-0.06066496482344828</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0.1529202969190125</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>-0.04662591619610367</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>-0.02551548286303258</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>-0.03264506952590663</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>-0.04799004021138951</v>
+      </c>
+    </row>
+    <row r="44" spans="1:47">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.8016683855282195</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.7791035932347656</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.7229645432441609</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.7522676920692926</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.1720521608374014</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.7688309274535698</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.5584723297431596</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.1749195239952371</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.7762677481118831</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.02663511448701851</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.1784633665045446</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.2271574518468874</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.8890258160937102</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.8155550110681966</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.2022700446627746</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.7852983908678997</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.7800928245613462</v>
+      </c>
+      <c r="S44" t="n">
+        <v>-0.06676980191091191</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.8325014953150193</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.5145505384865128</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.8391142703507128</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.6440443531789711</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.6654609370398969</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.7407780961838738</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.6850261029959595</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0.7587434849110872</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.5817867845523684</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.5973032746878943</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.7454456313468749</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0.2362374223466697</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.1667085823713153</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0.3554295875604756</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0.811799413232243</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0.8453673389098624</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0.9226922025897403</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0.8665778605496143</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0.828434958559053</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0.8558779293700692</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0.5066186614116909</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0.9308105797411513</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0.7464301990484216</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>-0.04662591619610367</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0.8472810527405419</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0.5435229049137347</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0.6117893564712166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:47">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.681344146182864</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.7910111321693997</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.667769707068162</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.6336193144567748</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.1566708426072723</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.7380001926506127</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.5644273065122847</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.1712519907958373</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5605465068439041</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.005413698018028736</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.1756488036598084</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.1989445239030578</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.9460803540846616</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.7344515583496529</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.1699221782843949</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.620641330816449</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.8779675756381496</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.04177259119858534</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.8237086472971387</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.4106378192309345</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.9135842994658609</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.4333553112457075</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.4933407537702515</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.6952712739948594</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.5198509847149909</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.5985567138562017</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0.6050743646736729</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.4652880406078361</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.4619756242852521</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.2126980852221485</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.1683981223473897</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0.2987600951257589</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0.7639853873292823</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0.6852473877483338</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0.8340295904517723</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0.9401166515147233</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0.8094281319438643</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0.9025731115844218</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0.5494469606855182</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0.8510507054362465</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0.73764203363277</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>-0.02551548286303258</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0.8472810527405418</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>0.4877875984809447</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0.5159107828829285</v>
+      </c>
+    </row>
+    <row r="46" spans="1:47">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.4914327905887364</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.6457234167061537</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.4983229404303088</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.8198151961293284</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.1322200107431965</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.6236373293436379</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.618088112350991</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.1388091812382463</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.545503928812933</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.007536977940519081</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.1422406094099735</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.2701256944351814</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.4838033209069412</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.6603928306673396</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.1526457108992797</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.554509527350201</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.3877650299232153</v>
+      </c>
+      <c r="S46" t="n">
+        <v>-0.03183369136037274</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.5145583841745507</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.6664242601717698</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.4873756449161216</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.3500545238306128</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.7315408472624747</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.7546831347837702</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0.3715609642723544</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0.7956443217784036</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0.6490292362469766</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0.3871297463141621</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0.4875908908850087</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0.1865044134604541</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0.1437950105547111</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0.2439419836071823</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0.5020045152646128</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>0.4836958043085831</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>0.5066742748755005</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>0.5001262139571827</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>0.7335668167902435</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>0.5496184343979635</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>0.4721672586726073</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>0.5043853919897828</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>0.6774102072579746</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>-0.03264506952590662</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>0.5435229049137347</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>0.4877875984809447</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>0.4734264042502299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:47">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.636146688246796</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.5481925365427193</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.4230149133864405</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.5949006900836082</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.259377378574214</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.5038505275665702</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.4439827305090821</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.3260708342293527</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5919725832681459</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.03540190240975433</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.3815026173451089</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.180477933271711</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.5076814639669288</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.5874567450872468</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.2686946894992258</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.5597578172838487</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.4413128408918808</v>
+      </c>
+      <c r="S47" t="n">
+        <v>-0.03220248468591286</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.491633880798449</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.4343590863908166</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.5428690217562523</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.5110682712047929</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.445097038035796</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.5503322894311334</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0.5403194067094893</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0.5997010905952005</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0.4464623361435851</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0.4230795270216622</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0.4366439830194406</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0.1204798850265932</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0.3682557473614093</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0.3854841201044178</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0.6658780333386198</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>0.4835052581413768</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>0.5882983674648276</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>0.5119504810681639</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>0.5759418395238409</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>0.5175025561754496</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0.3488966688217694</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0.575958496628565</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>0.5214031067874199</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>-0.0479900402113895</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>0.6117893564712166</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>0.5159107828829285</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>0.4734264042502299</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
